--- a/relatorios_simplificados/separarNeomater_SIMPLIFICADO.xlsx
+++ b/relatorios_simplificados/separarNeomater_SIMPLIFICADO.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,84 +437,129 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Paciente RJ - Belford Roxo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>RJ - Belford Roxo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Quantidade RJ - Belford Roxo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Paciente RJ - Itaguaí</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>RJ - Itaguaí</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Quantidade RJ - Itaguaí</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Paciente RJ - Japeri</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>RJ - Japeri</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Quantidade RJ - Japeri</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Paciente RJ - Mesquita</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>RJ - Mesquita</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Quantidade RJ - Mesquita</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Paciente RJ - Nova Iguaçu</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Quantidade RJ - Nova Iguaçu</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Paciente RJ - Queimados</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>RJ - Queimados</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Quantidade RJ - Queimados</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Paciente RJ - São João de Meriti</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>RJ - São João de Meriti</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Quantidade RJ - São João de Meriti</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Paciente RJ - Seropédica</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>RJ - Seropédica</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Quantidade RJ - Seropédica</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ADRIELLY VICTORIA DE ASSIS DOS SANTOS</t>
+          <t>HEITOR LUCAS ALMEIDA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -527,7 +572,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DAVI LUCAS MARQUES LIMA</t>
+          <t>KAIQUE DE SA GONCALVES</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -540,7 +585,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>MICHAEL JANUARIO MACHADO DE FARIAS</t>
+          <t>YURI MARTINS DE AZEVEDO</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -553,7 +598,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>THEO DOS SANTOS DA COSTA</t>
+          <t>BRAYAN BAPTISTA EDMUNDO</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -566,7 +611,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>CALEB NASCIMENTO FERREIRA</t>
+          <t>KAIQUE ANTUNES MARQUES</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -575,13 +620,52 @@
         </is>
       </c>
       <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>PEDRO LUCAS RIBEIRO JULIAO DE SOUZA</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>HENRY DE SOUZA MARIA DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>samuel da silva pessoa</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="X2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>THALLIS LUIZ VELOZO GUEDES</t>
+          <t>MARLON MIGUEL MOREIRA SANTOS DA SILVA</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -594,61 +678,100 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>RYAN DA SILVA ESCOBAR</t>
+          <t>KAIQUE DE SA GONCALVES</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>MARIA EDUARDA DOS SANTOS SILVA</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>MARIA JULIA OLIVEIRA FIRMINO</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>NICOLLAS SOUZA DE JESUS</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>ENZO GABRIEL VIEIRA LAMEIRA</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>JASMYNE DE SOUZA BARRETO</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>DAVI LUCAS NASCIMENTO DA SILVA</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
       <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>PEDRO LUCAS RIBEIRO JULIAO DE SOUZA</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>HENRY DE SOUZA MARIA DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>samuel da silva pessoa</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="X3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ROMULO GUSTAVO DANTAS FERNANDES</t>
+          <t>JOAO RICARDO FERNANDES JOAQUIM DE ALMEIDA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -661,128 +784,176 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>STELLA ALMEIDA DE SOUZA</t>
+          <t>KAIQUE DE SA GONCALVES</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>MARIA EDUARDA DOS SANTOS SILVA</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>NICOLLAS SOUZA DE JESUS</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>LUISA DE SOUZA FORTES</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>PEDRO HENRIQUE DE OLIVEIRA CAETANO</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>HUGO LUIS FRANCELINO MANILHA</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
         <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>SUSAN SOPHIA OLIVEIRA DA SILVA</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>ENZO GABRIEL NASCIMENTO DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
         <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>ARTHUR MIGUEL MARQUES ARCANJO</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="O4" t="n">
+      <c r="X4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ADRIELLY VICTORIA DE ASSIS DOS SANTOS</t>
+          <t>JOAO RICARDO FERNANDES JOAQUIM DE ALMEIDA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>DAVI LUCAS MARQUES LIMA</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>YURI MARTINS DE AZEVEDO</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>BRAYAN BAPTISTA EDMUNDO</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>LAIS PEREIRA ALMEIDA</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>LUAN VITOR MAGALHAES OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>GAEL DO NASCIMENTO LEGENTIL</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>LUIDY GABRIEL DE SOUZA EMIDIO</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
         <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>CALEB NASCIMENTO FERREIRA</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="O5" t="n">
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>GABRYELLA MARTINS DA SILVA</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="X5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ADRIELLY VICTORIA DE ASSIS DOS SANTOS</t>
+          <t>MARLON MIGUEL MOREIRA SANTOS DA SILVA</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -793,63 +964,82 @@
       <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>RYAN DA SILVA ESCOBAR</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>YURI MARTINS DE AZEVEDO</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>LAVINIA ARAUJO DE ALMEIDA</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ITALO SANTOS DE SAO JUSTO</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>IURY DE SOUZA QUEIROZ</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>RAFAELLA VENTURA DE SALES</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>ARTHUR MIGUEL MARQUES ARCANJO</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
       <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>DAVI HENRIQUE DE ASSIS DO ROZARIO</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>RIQUELME TAVARES ALMEIDA</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="X6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>THALLIS LUIZ VELOZO GUEDES</t>
+          <t>HEITOR LUCAS ALMEIDA</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -860,188 +1050,275 @@
       <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>DAVI LUCAS MARQUES LIMA</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>RIQUELME DA SILVA COSTA</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>GUILHERME ROMAO DA SILVA</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>DAVI CORTEIS TEOFILO SOARES</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>HUGO LUIS FRANCELINO MANILHA</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>GABRYELLA MARTINS DA SILVA</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
         <is>
           <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>MICHAEL JANUARIO MACHADO DE FARIAS</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>RAVI BATISTA DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>DAVI LUCAS NASCIMENTO DA SILVA</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="O7" t="n">
+      <c r="X7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ROMULO GUSTAVO DANTAS FERNANDES</t>
+          <t>JOAO RICARDO FERNANDES JOAQUIM DE ALMEIDA</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>RIQUELME DA SILVA COSTA</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>STELLA ALMEIDA DE SOUZA</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>GAEL ARAUJO DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>FABIO ALVES DE MIRANDA</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>LUIDY GABRIEL DE SOUZA EMIDIO</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>RIQUELME TAVARES ALMEIDA</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
         <is>
           <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>LAVINIA ARAUJO DE ALMEIDA</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>ISRAEL PHELIPE ARAUJO DA SILVA NUNES</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>GUSTTAVO MUNIZ DE SOUZA</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="O8" t="n">
+      <c r="X8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HEITOR LUCAS ALMEIDA</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>LAIS PEREIRA ALMEIDA</t>
+          <t>RIQUELME DA SILVA COSTA</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PIETRO DANIEL SANTOS MACHADO</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>OTHON ESTEVES LEMOS</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>DAVI HENRIQUE DE ASSIS DO ROZARIO</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>ENZO GABRIEL NASCIMENTO DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
           <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>ISRAEL PHELIPE ARAUJO DA SILVA NUNES</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>PEDRO HENRIQUE DA S DE PAULA</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="O9" t="n">
+      <c r="X9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>HEITOR LUCAS ALMEIDA</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>PEDRO HENRIQUE DE OLIVEIRA CAETANO</t>
+          <t>RIQUELME DA SILVA COSTA</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1049,12 +1326,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>ISRAEL PHELIPE ARAUJO DA SILVA NUNES</t>
+          <t>PEDRO PATRICK PONTES DE LIMA</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -1062,75 +1339,143 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>JOAO PEDRO DE AZEVEDO DE SOUZA</t>
+          <t>KAIQUE ANTUNES MARQUES</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="O10" t="n">
         <v>1</v>
       </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>HUGO LUIS FRANCELINO MANILHA</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>CORRECAO DE HIPOSPADIA (1º TEMPO) - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>GABRYELLA MARTINS DA SILVA</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="X10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>HEITOR LUCAS ALMEIDA</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>MICHAEL JANUARIO MACHADO DE FARIAS</t>
+          <t>BERNARDO DE PAULA MINEIRO SANTOS</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>JOAO ARTHUR FERNANDES DE VASCONCELOS</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>LUISA DE SOUZA FORTES</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
           <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>RAVI BATISTA DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>RIQUELME TAVARES ALMEIDA</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
         <is>
           <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>MAICON BRYAN TORRES DE ANDRADE RABELO</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="O11" t="n">
+      <c r="X11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MARLON MIGUEL MOREIRA SANTOS DA SILVA</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>MARIA JULIA OLIVEIRA FIRMINO</t>
+          <t>BERNARDO DE PAULA MINEIRO SANTOS</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1143,7 +1488,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>RAVI BATISTA DOS SANTOS</t>
+          <t>GUILHERME ROMAO DA SILVA</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1156,59 +1501,107 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>MICHEL FELICIANO CALIXTE</t>
+          <t>JASMYNE DE SOUZA BARRETO</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="O12" t="n">
         <v>1</v>
       </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MARLON MIGUEL MOREIRA SANTOS DA SILVA</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>BERNARDO DE PAULA MINEIRO SANTOS</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>THEO DOS SANTOS DA COSTA</t>
+          <t>GUILHERME ROMAO DA SILVA</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>OTHON ESTEVES LEMOS</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
           <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>MICHEL FELICIANO CALIXTE</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-        </is>
-      </c>
       <c r="O13" t="n">
         <v>1</v>
       </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ALLANA SAMARA BARRETO ALVES DA SILVA</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
@@ -1217,12 +1610,12 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>ISRAEL PHELIPE ARAUJO DA SILVA NUNES</t>
+          <t>GAEL ARAUJO DOS SANTOS</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -1230,7 +1623,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>PEDRO HENRIQUE DA S DE PAULA</t>
+          <t>FABIO ALVES DE MIRANDA</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1241,11 +1634,30 @@
       <c r="O14" t="n">
         <v>1</v>
       </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ISADORA MACHADO MACEDO</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
@@ -1254,12 +1666,12 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>ISRAEL PHELIPE ARAUJO DA SILVA NUNES</t>
+          <t>PIETRO DANIEL SANTOS MACHADO</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -1267,22 +1679,41 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>GUSTTAVO MUNIZ DE SOUZA</t>
+          <t>OTHON ESTEVES LEMOS</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>JOHN LUCCA DIAS GUILHERME</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
@@ -1291,7 +1722,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>RAVI BATISTA DOS SANTOS</t>
+          <t>GAEL ARAUJO DOS SANTOS</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1304,22 +1735,41 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>JOAO PEDRO DE AZEVEDO DE SOUZA</t>
+          <t>OTHON ESTEVES LEMOS</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="O16" t="n">
         <v>1</v>
       </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ANNA MIRELLA DA SILVA GRILLO</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
@@ -1328,35 +1778,54 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>IURY DE SOUZA QUEIROZ</t>
+          <t>PIETRO DANIEL SANTOS MACHADO</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>DAVI CORTEIS TEOFILO SOARES</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ALLANA SAMARA BARRETO ALVES DA SILVA</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>JOAO PEDRO DE AZEVEDO DE SOUZA</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
@@ -1365,12 +1834,12 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>GAEL DO NASCIMENTO LEGENTIL</t>
+          <t>GUILHERME ROMAO DA SILVA</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>CORRECAO DE HIPOSPADIA (1º TEMPO) - PEDIATRICO</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1378,22 +1847,41 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>MAICON BRYAN TORRES DE ANDRADE RABELO</t>
+          <t>RAFAELLA VENTURA DE SALES</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="O18" t="n">
         <v>1</v>
       </c>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ANNA MIRELLA DA SILVA GRILLO</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
@@ -1402,25 +1890,54 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>SUSAN SOPHIA OLIVEIRA DA SILVA</t>
+          <t>JOAO ARTHUR FERNANDES DE VASCONCELOS</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>LUAN VITOR MAGALHAES OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>JOHN LUCCA DIAS GUILHERME</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
@@ -1429,25 +1946,54 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>SUSAN SOPHIA OLIVEIRA DA SILVA</t>
+          <t>ITALO SANTOS DE SAO JUSTO</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>FABIO ALVES DE MIRANDA</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
           <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ISADORA MACHADO MACEDO</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
@@ -1456,7 +2002,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>ENZO GABRIEL VIEIRA LAMEIRA</t>
+          <t>PEDRO PATRICK PONTES DE LIMA</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1470,276 +2016,231 @@
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ALLANA SAMARA BARRETO ALVES DA SILVA</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>KEVIN OLIVEIRA BRITO DE JESUS</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>LENDROLEO VINICIUS DOS SANTOS SILVA</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>MIGUEL DE MATTOS SALES</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>THIAGO BATISTA DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>ABNNER DOS SANTOS NASCIMENTO</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>THIAGO BATISTA DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>BERNARDO DAVI SOUSA VENANCIO</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>LENDROLEO VINICIUS DOS SANTOS SILVA</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>MICAEL ANTONIO RODRIGUES PONTES</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>LENDROLEO VINICIUS DOS SANTOS SILVA</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>KEVIN OLIVEIRA BRITO DE JESUS</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>MIGUEL DE MATTOS SALES</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>ABNNER DOS SANTOS NASCIMENTO</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>MICAEL ANTONIO RODRIGUES PONTES</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>BERNARDO DAVI SOUSA VENANCIO</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1752,7 +2253,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1820,22 +2321,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RJ - Japeri</t>
+          <t>RJ - Belford Roxo</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>22/12/2025 11:00</t>
+          <t>20/10/2025 11:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ADRIELLY VICTORIA DE ASSIS DOS SANTOS</t>
+          <t>HEITOR LUCAS ALMEIDA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16/01/2012</t>
+          <t>20/05/2021</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1875,22 +2376,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RJ - Japeri</t>
+          <t>RJ - Belford Roxo</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>22/12/2025 11:00</t>
+          <t>20/10/2025 11:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>THALLIS LUIZ VELOZO GUEDES</t>
+          <t>MARLON MIGUEL MOREIRA SANTOS DA SILVA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>05/05/2015</t>
+          <t>23/12/2022</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1930,22 +2431,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RJ - Japeri</t>
+          <t>RJ - Belford Roxo</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>22/12/2025 11:00</t>
+          <t>20/10/2025 11:00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ROMULO GUSTAVO DANTAS FERNANDES</t>
+          <t>JOAO RICARDO FERNANDES JOAQUIM DE ALMEIDA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>26/10/2018</t>
+          <t>02/05/2017</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1985,27 +2486,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RJ - Japeri</t>
+          <t>RJ - Belford Roxo</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>29/12/2025 07:00</t>
+          <t>25/10/2025 07:00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ADRIELLY VICTORIA DE ASSIS DOS SANTOS</t>
+          <t>JOAO RICARDO FERNANDES JOAQUIM DE ALMEIDA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16/01/2012</t>
+          <t>02/05/2017</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -2013,7 +2514,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>R$ 5.239,94</t>
+          <t>R$ 4.802,07</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -2028,34 +2529,34 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>R$ 610,06</t>
+          <t>R$ 434,99</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>R$ 5.850,00</t>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RJ - Japeri</t>
+          <t>RJ - Belford Roxo</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>29/12/2025 07:00</t>
+          <t>25/10/2025 07:00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ADRIELLY VICTORIA DE ASSIS DOS SANTOS</t>
+          <t>MARLON MIGUEL MOREIRA SANTOS DA SILVA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>16/01/2012</t>
+          <t>23/12/2022</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -2095,22 +2596,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RJ - Japeri</t>
+          <t>RJ - Belford Roxo</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>29/12/2025 07:00</t>
+          <t>25/10/2025 07:00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>THALLIS LUIZ VELOZO GUEDES</t>
+          <t>HEITOR LUCAS ALMEIDA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>05/05/2015</t>
+          <t>20/05/2021</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -2150,27 +2651,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RJ - Japeri</t>
+          <t>RJ - Belford Roxo</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>29/12/2025 07:00</t>
+          <t>25/10/2025 07:00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ROMULO GUSTAVO DANTAS FERNANDES</t>
+          <t>JOAO RICARDO FERNANDES JOAQUIM DE ALMEIDA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>26/10/2018</t>
+          <t>02/05/2017</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -2178,7 +2679,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -2193,39 +2694,39 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Belford Roxo</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>22/12/2025 11:00</t>
+          <t>25/10/2025 07:00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DAVI LUCAS MARQUES LIMA</t>
+          <t>HEITOR LUCAS ALMEIDA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>29/11/2015</t>
+          <t>20/05/2021</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -2233,7 +2734,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 5.239,94</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -2248,39 +2749,39 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 610,06</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.850,00</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Belford Roxo</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>22/12/2025 11:00</t>
+          <t>25/10/2025 07:00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>RYAN DA SILVA ESCOBAR</t>
+          <t>HEITOR LUCAS ALMEIDA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>16/03/2014</t>
+          <t>20/05/2021</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -2288,7 +2789,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.772,46</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2303,39 +2804,39 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 385,32</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.157,78</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Belford Roxo</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>22/12/2025 11:00</t>
+          <t>25/10/2025 07:00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>STELLA ALMEIDA DE SOUZA</t>
+          <t>HEITOR LUCAS ALMEIDA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10/11/2020</t>
+          <t>20/05/2021</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -2343,7 +2844,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2358,39 +2859,39 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Belford Roxo</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>29/12/2025 07:00</t>
+          <t>25/10/2025 07:00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DAVI LUCAS MARQUES LIMA</t>
+          <t>MARLON MIGUEL MOREIRA SANTOS DA SILVA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29/11/2015</t>
+          <t>23/12/2022</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -2398,7 +2899,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 5.239,94</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2413,34 +2914,34 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 610,06</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 5.850,00</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Belford Roxo</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>29/12/2025 07:00</t>
+          <t>25/10/2025 07:00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>RYAN DA SILVA ESCOBAR</t>
+          <t>MARLON MIGUEL MOREIRA SANTOS DA SILVA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>16/03/2014</t>
+          <t>23/12/2022</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2480,27 +2981,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Belford Roxo</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>29/12/2025 07:00</t>
+          <t>27/10/2025 11:00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DAVI LUCAS MARQUES LIMA</t>
+          <t>ALLANA SAMARA BARRETO ALVES DA SILVA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>29/11/2015</t>
+          <t>26/07/2021</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -2508,7 +3009,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2523,39 +3024,39 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Belford Roxo</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>29/12/2025 07:00</t>
+          <t>27/10/2025 11:00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>STELLA ALMEIDA DE SOUZA</t>
+          <t>ISADORA MACHADO MACEDO</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>10/11/2020</t>
+          <t>05/02/2021</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -2563,7 +3064,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2578,34 +3079,34 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Belford Roxo</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>17/12/2025 11:00</t>
+          <t>27/10/2025 11:00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MICHAEL JANUARIO MACHADO DE FARIAS</t>
+          <t>JOHN LUCCA DIAS GUILHERME</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>05/02/2016</t>
+          <t>26/03/2019</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2645,22 +3146,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Belford Roxo</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>17/12/2025 11:00</t>
+          <t>27/10/2025 11:00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MARIA JULIA OLIVEIRA FIRMINO</t>
+          <t>ANNA MIRELLA DA SILVA GRILLO</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>02/09/2023</t>
+          <t>16/11/2015</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2700,27 +3201,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Belford Roxo</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>17/12/2025 11:00</t>
+          <t>28/10/2025 07:00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PEDRO HENRIQUE DE OLIVEIRA CAETANO</t>
+          <t>ALLANA SAMARA BARRETO ALVES DA SILVA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>04/11/2019</t>
+          <t>26/07/2021</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -2728,7 +3229,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 5.239,94</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2743,39 +3244,39 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 610,06</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.850,00</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Belford Roxo</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>17/12/2025 11:00</t>
+          <t>28/10/2025 07:00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>LAIS PEREIRA ALMEIDA</t>
+          <t>ANNA MIRELLA DA SILVA GRILLO</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>25/06/2019</t>
+          <t>16/11/2015</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -2783,7 +3284,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.802,07</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2798,39 +3299,39 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 434,99</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Belford Roxo</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>17/12/2025 11:00</t>
+          <t>28/10/2025 07:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>LAVINIA ARAUJO DE ALMEIDA</t>
+          <t>JOHN LUCCA DIAS GUILHERME</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>10/08/2020</t>
+          <t>26/03/2019</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -2838,7 +3339,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.802,07</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2853,34 +3354,34 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 434,99</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Belford Roxo</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>19/12/2025 07:00</t>
+          <t>28/10/2025 07:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>MICHAEL JANUARIO MACHADO DE FARIAS</t>
+          <t>ISADORA MACHADO MACEDO</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>05/02/2016</t>
+          <t>05/02/2021</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2920,22 +3421,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Belford Roxo</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>19/12/2025 07:00</t>
+          <t>28/10/2025 15:00</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>LAVINIA ARAUJO DE ALMEIDA</t>
+          <t>ALLANA SAMARA BARRETO ALVES DA SILVA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>10/08/2020</t>
+          <t>26/07/2021</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2975,27 +3476,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Belford Roxo</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>19/12/2025 07:00</t>
+          <t>03/11/2025 11:00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>LAIS PEREIRA ALMEIDA</t>
+          <t>LENDROLEO VINICIUS DOS SANTOS SILVA</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>25/06/2019</t>
+          <t>12/03/2020</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -3003,7 +3504,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -3018,39 +3519,39 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Belford Roxo</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>19/12/2025 07:00</t>
+          <t>03/11/2025 11:00</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PEDRO HENRIQUE DE OLIVEIRA CAETANO</t>
+          <t>THIAGO BATISTA DOS SANTOS</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>04/11/2019</t>
+          <t>03/04/2015</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -3058,7 +3559,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -3073,39 +3574,39 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Belford Roxo</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>19/12/2025 07:00</t>
+          <t>08/11/2025 07:00</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MICHAEL JANUARIO MACHADO DE FARIAS</t>
+          <t>THIAGO BATISTA DOS SANTOS</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>05/02/2016</t>
+          <t>03/04/2015</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -3113,7 +3614,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>R$ 5.239,94</t>
+          <t>R$ 4.802,07</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -3128,34 +3629,34 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>R$ 610,06</t>
+          <t>R$ 434,99</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>R$ 5.850,00</t>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Belford Roxo</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>19/12/2025 07:00</t>
+          <t>08/11/2025 07:00</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MARIA JULIA OLIVEIRA FIRMINO</t>
+          <t>LENDROLEO VINICIUS DOS SANTOS SILVA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>02/09/2023</t>
+          <t>12/03/2020</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -3195,27 +3696,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Belford Roxo</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>17/12/2025 11:00</t>
+          <t>10/11/2025 15:00</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>THEO DOS SANTOS DA COSTA</t>
+          <t>LENDROLEO VINICIUS DOS SANTOS SILVA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>29/10/2021</t>
+          <t>12/03/2020</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -3223,7 +3724,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -3238,34 +3739,34 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Itaguaí</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>17/12/2025 11:00</t>
+          <t>03/11/2025 11:00</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ENZO GABRIEL VIEIRA LAMEIRA</t>
+          <t>KAIQUE DE SA GONCALVES</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>14/02/2012</t>
+          <t>17/05/2017</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -3305,27 +3806,27 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Itaguaí</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>17/12/2025 11:00</t>
+          <t>08/11/2025 07:00</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SUSAN SOPHIA OLIVEIRA DA SILVA</t>
+          <t>KAIQUE DE SA GONCALVES</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>25/01/2022</t>
+          <t>17/05/2017</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -3333,7 +3834,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 5.239,94</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -3348,39 +3849,39 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 610,06</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.850,00</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Itaguaí</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>17/12/2025 11:00</t>
+          <t>08/11/2025 07:00</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>GAEL DO NASCIMENTO LEGENTIL</t>
+          <t>KAIQUE DE SA GONCALVES</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>01/03/2024</t>
+          <t>17/05/2017</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -3388,7 +3889,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -3403,34 +3904,34 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>17/12/2025 11:00</t>
+          <t>20/10/2025 11:00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>IURY DE SOUZA QUEIROZ</t>
+          <t>YURI MARTINS DE AZEVEDO</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>14/05/2023</t>
+          <t>18/01/2016</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3470,22 +3971,22 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>17/12/2025 11:00</t>
+          <t>20/10/2025 11:00</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>RAVI BATISTA DOS SANTOS</t>
+          <t>MARIA EDUARDA DOS SANTOS SILVA</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>05/09/2022</t>
+          <t>13/03/2019</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3525,27 +4026,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>17/12/2025 11:00</t>
+          <t>25/10/2025 07:00</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ISRAEL PHELIPE ARAUJO DA SILVA NUNES</t>
+          <t>MARIA EDUARDA DOS SANTOS SILVA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>11/11/2020</t>
+          <t>13/03/2019</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -3553,7 +4054,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.802,07</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -3568,39 +4069,39 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 434,99</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>19/12/2025 07:00</t>
+          <t>25/10/2025 07:00</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ISRAEL PHELIPE ARAUJO DA SILVA NUNES</t>
+          <t>YURI MARTINS DE AZEVEDO</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>11/11/2020</t>
+          <t>18/01/2016</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -3608,7 +4109,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 4.802,07</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -3623,39 +4124,39 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 434,99</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>19/12/2025 07:00</t>
+          <t>25/10/2025 07:00</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ISRAEL PHELIPE ARAUJO DA SILVA NUNES</t>
+          <t>YURI MARTINS DE AZEVEDO</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>11/11/2020</t>
+          <t>18/01/2016</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -3663,7 +4164,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>R$ 6.772,46</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -3678,39 +4179,39 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>R$ 385,32</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>R$ 7.157,78</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>19/12/2025 07:00</t>
+          <t>03/11/2025 11:00</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>RAVI BATISTA DOS SANTOS</t>
+          <t>RIQUELME DA SILVA COSTA</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>05/09/2022</t>
+          <t>06/08/2016</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -3718,7 +4219,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>R$ 5.239,94</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -3733,39 +4234,39 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>R$ 610,06</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>R$ 5.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>19/12/2025 07:00</t>
+          <t>08/11/2025 07:00</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>RAVI BATISTA DOS SANTOS</t>
+          <t>RIQUELME DA SILVA COSTA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>05/09/2022</t>
+          <t>06/08/2016</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -3773,7 +4274,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>R$ 6.772,46</t>
+          <t>R$ 4.802,07</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -3788,39 +4289,39 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>R$ 385,32</t>
+          <t>R$ 434,99</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>R$ 7.157,78</t>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>19/12/2025 07:00</t>
+          <t>08/11/2025 07:00</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>THEO DOS SANTOS DA COSTA</t>
+          <t>RIQUELME DA SILVA COSTA</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>29/10/2021</t>
+          <t>06/08/2016</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -3828,7 +4329,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 6.772,46</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -3843,39 +4344,39 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 385,32</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 7.157,78</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>19/12/2025 07:00</t>
+          <t>08/11/2025 07:00</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ISRAEL PHELIPE ARAUJO DA SILVA NUNES</t>
+          <t>RIQUELME DA SILVA COSTA</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>11/11/2020</t>
+          <t>06/08/2016</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -3883,7 +4384,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -3898,39 +4399,39 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>19/12/2025 07:00</t>
+          <t>17/11/2025 11:00</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ISRAEL PHELIPE ARAUJO DA SILVA NUNES</t>
+          <t>BERNARDO DE PAULA MINEIRO SANTOS</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>11/11/2020</t>
+          <t>30/09/2015</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -3938,7 +4439,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>R$ 5.239,94</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -3953,39 +4454,39 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>R$ 610,06</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>R$ 5.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>19/12/2025 07:00</t>
+          <t>18/11/2025 07:00</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>RAVI BATISTA DOS SANTOS</t>
+          <t>BERNARDO DE PAULA MINEIRO SANTOS</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>05/09/2022</t>
+          <t>30/09/2015</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -3993,7 +4494,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 4.802,07</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -4008,34 +4509,34 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 434,99</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>19/12/2025 07:00</t>
+          <t>18/11/2025 11:00</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>IURY DE SOUZA QUEIROZ</t>
+          <t>BERNARDO DE PAULA MINEIRO SANTOS</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>14/05/2023</t>
+          <t>30/09/2015</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -4075,27 +4576,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>19/12/2025 07:00</t>
+          <t>27/10/2025 11:00</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>GAEL DO NASCIMENTO LEGENTIL</t>
+          <t>BRAYAN BAPTISTA EDMUNDO</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>01/03/2024</t>
+          <t>26/06/2019</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>CORRECAO DE HIPOSPADIA (1º TEMPO) - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -4103,7 +4604,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>R$ 6.235,90</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -4118,39 +4619,39 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>R$ 372,96</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>R$ 6.608,86</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>22/12/2025 07:00</t>
+          <t>27/10/2025 11:00</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SUSAN SOPHIA OLIVEIRA DA SILVA</t>
+          <t>NICOLLAS SOUZA DE JESUS</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>25/01/2022</t>
+          <t>01/06/2015</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -4158,7 +4659,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -4173,39 +4674,39 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>22/12/2025 07:00</t>
+          <t>28/10/2025 07:00</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SUSAN SOPHIA OLIVEIRA DA SILVA</t>
+          <t>NICOLLAS SOUZA DE JESUS</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>25/01/2022</t>
+          <t>01/06/2015</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -4213,7 +4714,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>R$ 5.239,94</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -4228,34 +4729,34 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>R$ 610,06</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>R$ 5.850,00</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>22/12/2025 07:00</t>
+          <t>28/10/2025 07:00</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ENZO GABRIEL VIEIRA LAMEIRA</t>
+          <t>BRAYAN BAPTISTA EDMUNDO</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>14/02/2012</t>
+          <t>26/06/2019</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -4295,22 +4796,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>05/01/2026 11:00</t>
+          <t>03/11/2025 11:00</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>KEVIN OLIVEIRA BRITO DE JESUS</t>
+          <t>ITALO SANTOS DE SAO JUSTO</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>29/01/2014</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -4350,22 +4851,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>05/01/2026 11:00</t>
+          <t>03/11/2025 11:00</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MIGUEL DE MATTOS SALES</t>
+          <t>GUILHERME ROMAO DA SILVA</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>28/08/2019</t>
+          <t>21/08/2017</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -4405,22 +4906,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>05/01/2026 11:00</t>
+          <t>03/11/2025 11:00</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ABNNER DOS SANTOS NASCIMENTO</t>
+          <t>GAEL ARAUJO DOS SANTOS</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>15/04/2020</t>
+          <t>17/10/2019</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -4460,22 +4961,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>05/01/2026 11:00</t>
+          <t>03/11/2025 11:00</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>BERNARDO DAVI SOUSA VENANCIO</t>
+          <t>PIETRO DANIEL SANTOS MACHADO</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>29/01/2018</t>
+          <t>28/05/2017</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -4515,22 +5016,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>05/01/2026 11:00</t>
+          <t>03/11/2025 11:00</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>MICAEL ANTONIO RODRIGUES PONTES</t>
+          <t>PEDRO PATRICK PONTES DE LIMA</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>09/05/2020</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -4570,27 +5071,27 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>09/01/2026 07:00</t>
+          <t>03/11/2025 11:00</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>KEVIN OLIVEIRA BRITO DE JESUS</t>
+          <t>JOAO ARTHUR FERNANDES DE VASCONCELOS</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>29/01/2014</t>
+          <t>31/08/2019</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -4598,7 +5099,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -4613,39 +5114,39 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>09/01/2026 07:00</t>
+          <t>07/11/2025 07:00</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>MIGUEL DE MATTOS SALES</t>
+          <t>GUILHERME ROMAO DA SILVA</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>28/08/2019</t>
+          <t>21/08/2017</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -4653,7 +5154,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 6.772,46</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -4668,39 +5169,39 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 385,32</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 7.157,78</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>09/01/2026 07:00</t>
+          <t>07/11/2025 07:00</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ABNNER DOS SANTOS NASCIMENTO</t>
+          <t>GUILHERME ROMAO DA SILVA</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>15/04/2020</t>
+          <t>21/08/2017</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -4708,7 +5209,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 5.239,94</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -4723,39 +5224,39 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 610,06</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 5.850,00</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>09/01/2026 07:00</t>
+          <t>07/11/2025 07:00</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>MICAEL ANTONIO RODRIGUES PONTES</t>
+          <t>GAEL ARAUJO DOS SANTOS</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>17/10/2019</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -4763,7 +5264,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 6.772,46</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -4778,39 +5279,39 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 385,32</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 7.157,78</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>09/01/2026 07:00</t>
+          <t>07/11/2025 07:00</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>BERNARDO DAVI SOUSA VENANCIO</t>
+          <t>PIETRO DANIEL SANTOS MACHADO</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>29/01/2018</t>
+          <t>28/05/2017</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -4818,7 +5319,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 6.772,46</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -4833,39 +5334,39 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 385,32</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 7.157,78</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>17/12/2025 11:00</t>
+          <t>07/11/2025 07:00</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CALEB NASCIMENTO FERREIRA</t>
+          <t>GAEL ARAUJO DOS SANTOS</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>09/09/2021</t>
+          <t>17/10/2019</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -4873,7 +5374,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -4888,39 +5389,39 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>17/12/2025 11:00</t>
+          <t>07/11/2025 07:00</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>DAVI LUCAS NASCIMENTO DA SILVA</t>
+          <t>PIETRO DANIEL SANTOS MACHADO</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>13/08/2018</t>
+          <t>28/05/2017</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -4928,7 +5429,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -4943,39 +5444,39 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>17/12/2025 11:00</t>
+          <t>07/11/2025 07:00</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ARTHUR MIGUEL MARQUES ARCANJO</t>
+          <t>GUILHERME ROMAO DA SILVA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>28/01/2020</t>
+          <t>21/08/2017</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -4983,7 +5484,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -4998,34 +5499,34 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>19/12/2025 07:00</t>
+          <t>07/11/2025 07:00</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CALEB NASCIMENTO FERREIRA</t>
+          <t>JOAO ARTHUR FERNANDES DE VASCONCELOS</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>09/09/2021</t>
+          <t>31/08/2019</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -5065,22 +5566,22 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>19/12/2025 07:00</t>
+          <t>07/11/2025 07:00</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>ARTHUR MIGUEL MARQUES ARCANJO</t>
+          <t>ITALO SANTOS DE SAO JUSTO</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>28/01/2020</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -5120,22 +5621,22 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>19/12/2025 07:00</t>
+          <t>07/11/2025 07:00</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>DAVI LUCAS NASCIMENTO DA SILVA</t>
+          <t>PEDRO PATRICK PONTES DE LIMA</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>13/08/2018</t>
+          <t>09/05/2020</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -5175,22 +5676,22 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>05/01/2026 11:00</t>
+          <t>20/10/2025 11:00</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>GUSTTAVO MUNIZ DE SOUZA</t>
+          <t>KAIQUE ANTUNES MARQUES</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>22/11/2016</t>
+          <t>09/08/2013</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -5230,22 +5731,22 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>05/01/2026 11:00</t>
+          <t>20/10/2025 11:00</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>PEDRO HENRIQUE DA S DE PAULA</t>
+          <t>JASMYNE DE SOUZA BARRETO</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>15/10/2014</t>
+          <t>09/08/2019</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -5285,22 +5786,22 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>05/01/2026 11:00</t>
+          <t>20/10/2025 11:00</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>JOAO PEDRO DE AZEVEDO DE SOUZA</t>
+          <t>LUISA DE SOUZA FORTES</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>31/03/2018</t>
+          <t>30/04/2020</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -5340,22 +5841,22 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>05/01/2026 11:00</t>
+          <t>20/10/2025 11:00</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>MAICON BRYAN TORRES DE ANDRADE RABELO</t>
+          <t>LUAN VITOR MAGALHAES OLIVEIRA</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>03/11/2014</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -5395,22 +5896,22 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>05/01/2026 11:00</t>
+          <t>20/10/2025 11:00</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>MICHEL FELICIANO CALIXTE</t>
+          <t>RAFAELLA VENTURA DE SALES</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>09/10/2022</t>
+          <t>02/08/2024</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -5450,27 +5951,27 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>09/01/2026 07:00</t>
+          <t>20/10/2025 11:00</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>MICHEL FELICIANO CALIXTE</t>
+          <t>DAVI CORTEIS TEOFILO SOARES</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>09/10/2022</t>
+          <t>05/08/2013</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -5478,7 +5979,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>R$ 5.239,94</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -5493,39 +5994,39 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>R$ 610,06</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>R$ 5.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>09/01/2026 07:00</t>
+          <t>20/10/2025 11:00</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>PEDRO HENRIQUE DA S DE PAULA</t>
+          <t>FABIO ALVES DE MIRANDA</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>15/10/2014</t>
+          <t>09/04/2018</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -5533,7 +6034,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -5548,39 +6049,39 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>09/01/2026 07:00</t>
+          <t>20/10/2025 11:00</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>GUSTTAVO MUNIZ DE SOUZA</t>
+          <t>OTHON ESTEVES LEMOS</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>22/11/2016</t>
+          <t>16/04/2022</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -5588,7 +6089,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>R$ 5.239,94</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -5603,34 +6104,34 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>R$ 610,06</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>R$ 5.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>09/01/2026 07:00</t>
+          <t>24/10/2025 07:00</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>JOAO PEDRO DE AZEVEDO DE SOUZA</t>
+          <t>KAIQUE ANTUNES MARQUES</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>31/03/2018</t>
+          <t>09/08/2013</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -5670,27 +6171,27 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>09/01/2026 07:00</t>
+          <t>24/10/2025 07:00</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>JOAO PEDRO DE AZEVEDO DE SOUZA</t>
+          <t>LUISA DE SOUZA FORTES</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>31/03/2018</t>
+          <t>30/04/2020</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -5698,7 +6199,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 5.239,94</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -5713,67 +6214,1662 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 610,06</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 5.850,00</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
+          <t>RJ - Nova Iguaçu</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>24/10/2025 07:00</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>JASMYNE DE SOUZA BARRETO</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>09/08/2019</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>R$ 5.239,94</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>R$ 610,06</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>R$ 5.850,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>RJ - Nova Iguaçu</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>24/10/2025 07:00</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>OTHON ESTEVES LEMOS</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>16/04/2022</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>R$ 4.630,88</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>R$ 219,12</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>R$ 4.850,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>RJ - Nova Iguaçu</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>24/10/2025 07:00</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>FABIO ALVES DE MIRANDA</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>09/04/2018</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>R$ 4.630,88</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>R$ 219,12</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>R$ 4.850,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>RJ - Nova Iguaçu</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>24/10/2025 07:00</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>OTHON ESTEVES LEMOS</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>16/04/2022</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>R$ 6.772,46</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>R$ 385,32</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>R$ 7.157,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>RJ - Nova Iguaçu</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>24/10/2025 07:00</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>OTHON ESTEVES LEMOS</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>16/04/2022</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>1</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>R$ 5.239,94</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>R$ 610,06</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>R$ 5.850,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>RJ - Nova Iguaçu</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>24/10/2025 07:00</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>DAVI CORTEIS TEOFILO SOARES</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>05/08/2013</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>R$ 4.630,88</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>R$ 219,12</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>R$ 4.850,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>RJ - Nova Iguaçu</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>24/10/2025 07:00</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>RAFAELLA VENTURA DE SALES</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>02/08/2024</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>R$ 4.802,07</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>R$ 434,99</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>R$ 5.237,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>RJ - Nova Iguaçu</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>24/10/2025 07:00</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>LUAN VITOR MAGALHAES OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>08/11/2013</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>R$ 4.630,88</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>R$ 219,12</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>R$ 4.850,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>RJ - Nova Iguaçu</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>24/10/2025 07:00</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>FABIO ALVES DE MIRANDA</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>09/04/2018</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>R$ 5.239,94</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>R$ 610,06</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>R$ 5.850,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>RJ - Queimados</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>20/10/2025 11:00</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>PEDRO LUCAS RIBEIRO JULIAO DE SOUZA</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>28/07/2020</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>R$ 290,00</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>R$ 10,00</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>R$ 300,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>RJ - Queimados</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>25/10/2025 07:00</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>PEDRO LUCAS RIBEIRO JULIAO DE SOUZA</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>28/07/2020</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>R$ 4.630,88</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>R$ 219,12</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>R$ 4.850,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
           <t>RJ - São João de Meriti</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>09/01/2026 07:00</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>MAICON BRYAN TORRES DE ANDRADE RABELO</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>03/11/2014</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>27/10/2025 11:00</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>HENRY DE SOUZA MARIA DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>27/05/2017</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>R$ 290,00</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>R$ 10,00</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>R$ 300,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>RJ - São João de Meriti</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>28/10/2025 07:00</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>HENRY DE SOUZA MARIA DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>27/05/2017</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
         <is>
           <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
-      <c r="F73" t="n">
-        <v>1</v>
-      </c>
-      <c r="G73" t="inlineStr">
+      <c r="F85" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" t="inlineStr">
         <is>
           <t>R$ 4.630,88</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
         <is>
           <t>R$ 219,12</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr">
+      <c r="K85" t="inlineStr">
         <is>
           <t>R$ 4.850,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>RJ - São João de Meriti</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>17/11/2025 11:00</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>HUGO LUIS FRANCELINO MANILHA</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>11/04/2016</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>1</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>R$ 290,00</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>R$ 10,00</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>R$ 300,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>RJ - São João de Meriti</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>17/11/2025 11:00</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>LUIDY GABRIEL DE SOUZA EMIDIO</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>12/06/2021</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>R$ 290,00</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>R$ 10,00</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>R$ 300,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>RJ - São João de Meriti</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>17/11/2025 11:00</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>DAVI HENRIQUE DE ASSIS DO ROZARIO</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>13/05/2020</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>R$ 290,00</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>R$ 10,00</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>R$ 300,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>RJ - São João de Meriti</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>18/11/2025 07:00</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>HUGO LUIS FRANCELINO MANILHA</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>11/04/2016</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>1</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>R$ 4.630,88</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>R$ 219,12</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>R$ 4.850,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>RJ - São João de Meriti</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>18/11/2025 07:00</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>LUIDY GABRIEL DE SOUZA EMIDIO</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>12/06/2021</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>R$ 4.630,88</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>R$ 219,12</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>R$ 4.850,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>RJ - São João de Meriti</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>18/11/2025 07:00</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>DAVI HENRIQUE DE ASSIS DO ROZARIO</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>13/05/2020</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>R$ 4.630,88</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>R$ 219,12</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>R$ 4.850,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>RJ - São João de Meriti</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>18/11/2025 11:00</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>HUGO LUIS FRANCELINO MANILHA</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>11/04/2016</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>CORRECAO DE HIPOSPADIA (1º TEMPO) - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>R$ 6.235,90</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>R$ 372,96</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>R$ 6.608,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>RJ - Seropédica</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>20/10/2025 11:00</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>samuel da silva pessoa</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>27/02/2014</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>1</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>R$ 290,00</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>R$ 10,00</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>R$ 300,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>RJ - Seropédica</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>25/10/2025 07:00</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>samuel da silva pessoa</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>27/02/2014</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>1</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>R$ 4.802,07</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>R$ 434,99</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>R$ 5.237,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>RJ - Seropédica</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>17/11/2025 11:00</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>ENZO GABRIEL NASCIMENTO DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>11/02/2015</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>1</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>R$ 290,00</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>R$ 10,00</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>R$ 300,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>RJ - Seropédica</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>17/11/2025 11:00</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>GABRYELLA MARTINS DA SILVA</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>22/10/2018</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>1</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>R$ 290,00</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>R$ 10,00</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>R$ 300,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>RJ - Seropédica</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>17/11/2025 11:00</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>RIQUELME TAVARES ALMEIDA</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>23/05/2020</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>1</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>R$ 290,00</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>R$ 10,00</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>R$ 300,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>RJ - Seropédica</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>18/11/2025 07:00</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>GABRYELLA MARTINS DA SILVA</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>22/10/2018</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>1</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>R$ 4.802,07</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>R$ 434,99</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>R$ 5.237,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>RJ - Seropédica</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>18/11/2025 07:00</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>RIQUELME TAVARES ALMEIDA</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>23/05/2020</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>1</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>R$ 4.802,07</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>R$ 434,99</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>R$ 5.237,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>RJ - Seropédica</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>18/11/2025 07:00</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>ENZO GABRIEL NASCIMENTO DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>11/02/2015</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>1</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>R$ 4.802,07</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>R$ 434,99</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>R$ 5.237,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>RJ - Seropédica</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>18/11/2025 11:00</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>GABRYELLA MARTINS DA SILVA</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>22/10/2018</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>1</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>R$ 5.239,94</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>R$ 610,06</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>R$ 5.850,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>RJ - Seropédica</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>18/11/2025 11:00</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>RIQUELME TAVARES ALMEIDA</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>23/05/2020</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>1</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>R$ 5.239,94</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>R$ 610,06</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>R$ 5.850,00</t>
         </is>
       </c>
     </row>

--- a/relatorios_simplificados/separarNeomater_SIMPLIFICADO.xlsx
+++ b/relatorios_simplificados/separarNeomater_SIMPLIFICADO.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X27"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,105 +452,90 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Paciente RJ - Itaguaí</t>
+          <t>Paciente RJ - Magé</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>RJ - Itaguaí</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Quantidade RJ - Itaguaí</t>
+          <t>Quantidade RJ - Magé</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Paciente RJ - Japeri</t>
+          <t>Paciente RJ - Mesquita</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>RJ - Japeri</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Quantidade RJ - Japeri</t>
+          <t>Quantidade RJ - Mesquita</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Paciente RJ - Mesquita</t>
+          <t>Paciente RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Quantidade RJ - Mesquita</t>
+          <t>Quantidade RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Paciente RJ - Nova Iguaçu</t>
+          <t>Paciente RJ - Queimados</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Queimados</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Quantidade RJ - Nova Iguaçu</t>
+          <t>Quantidade RJ - Queimados</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Paciente RJ - Queimados</t>
+          <t>Paciente RJ - São João de Meriti</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - São João de Meriti</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Quantidade RJ - Queimados</t>
+          <t>Quantidade RJ - São João de Meriti</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Paciente RJ - São João de Meriti</t>
+          <t>Paciente RJ - Seropédica</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Quantidade RJ - São João de Meriti</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Paciente RJ - Seropédica</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>RJ - Seropédica</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Quantidade RJ - Seropédica</t>
         </is>
@@ -559,7 +544,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HEITOR LUCAS ALMEIDA</t>
+          <t>CHRISTOPHER COSTA DAMASCENO</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -572,7 +557,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>KAIQUE DE SA GONCALVES</t>
+          <t>GUILHERME FERREIRA DA COSTA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -585,7 +570,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>YURI MARTINS DE AZEVEDO</t>
+          <t>LORENA TEIXEIRA ROMEU DIAS</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -598,7 +583,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>BRAYAN BAPTISTA EDMUNDO</t>
+          <t>HELOISA LOPES DA COSTA</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -611,7 +596,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>KAIQUE ANTUNES MARQUES</t>
+          <t>VALENTIN DA SILVA RAFAEL</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -624,7 +609,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>PEDRO LUCAS RIBEIRO JULIAO DE SOUZA</t>
+          <t>MIGUEL LUIZ BASTOS ROCHA DA SILVA</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -637,7 +622,7 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>HENRY DE SOUZA MARIA DOS SANTOS</t>
+          <t>NATHALIA DOS SANTOS PEREIRA</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -646,26 +631,13 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>samuel da silva pessoa</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="X2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MARLON MIGUEL MOREIRA SANTOS DA SILVA</t>
+          <t>DAVI CRISTIAN LIMA DA CRUZ</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -678,12 +650,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>KAIQUE DE SA GONCALVES</t>
+          <t>GUILHERME FERREIRA DA COSTA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -691,7 +663,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>MARIA EDUARDA DOS SANTOS SILVA</t>
+          <t>MATIAS MEDEIROS ROSA</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -704,7 +676,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>NICOLLAS SOUZA DE JESUS</t>
+          <t>NOAH GABRIEL DOS SANTOS BARBOSA</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -717,7 +689,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>JASMYNE DE SOUZA BARRETO</t>
+          <t>PEDRO MYGUEL VIEIRA DE SOUZA</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -730,12 +702,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>PEDRO LUCAS RIBEIRO JULIAO DE SOUZA</t>
+          <t>JOSE ANTONIO LOMAR RIBEIRO</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="R3" t="n">
@@ -743,35 +715,22 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>HENRY DE SOUZA MARIA DOS SANTOS</t>
+          <t>HELENA ROCHA DA SILVA BRAGA</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>samuel da silva pessoa</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="X3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>JOAO RICARDO FERNANDES JOAQUIM DE ALMEIDA</t>
+          <t>DIEGO LUCAS DA SILVA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -784,7 +743,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>KAIQUE DE SA GONCALVES</t>
+          <t>GUILHERME FERREIRA DA COSTA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -797,12 +756,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>MARIA EDUARDA DOS SANTOS SILVA</t>
+          <t>MATIAS MEDEIROS ROSA</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -810,85 +769,92 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>NICOLLAS SOUZA DE JESUS</t>
+          <t>MIRELLA SOPHIA LOPES LIRA</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>DANIEL SALOMAO ROCHA GERALDO</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>JOSE ANTONIO LOMAR RIBEIRO</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
           <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>LUISA DE SOUZA FORTES</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>HUGO LUIS FRANCELINO MANILHA</t>
+          <t>NATHALIA DOS SANTOS PEREIRA</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>ENZO GABRIEL NASCIMENTO DE OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="X4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>JOAO RICARDO FERNANDES JOAQUIM DE ALMEIDA</t>
+          <t>EMANUEL SILVA VARELA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>GUILHERME FERREIRA DA COSTA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>YURI MARTINS DE AZEVEDO</t>
+          <t>LORENA TEIXEIRA ROMEU DIAS</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -896,12 +862,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>BRAYAN BAPTISTA EDMUNDO</t>
+          <t>ARTHUR SANTOS MOLINA</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -909,7 +875,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>LUAN VITOR MAGALHAES OLIVEIRA</t>
+          <t>DAVI SALOMAO ROCHA GERALDO</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -920,45 +886,42 @@
       <c r="O5" t="n">
         <v>1</v>
       </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>LUIZ MATHEUS FERREIRA DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>LUIDY GABRIEL DE SOUZA EMIDIO</t>
+          <t>HELENA ROCHA DA SILVA BRAGA</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>GABRYELLA MARTINS DA SILVA</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="X5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MARLON MIGUEL MOREIRA SANTOS DA SILVA</t>
+          <t>CHRISTOPHER COSTA DAMASCENO</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -969,82 +932,69 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>YURI MARTINS DE AZEVEDO</t>
+          <t>MATIAS MEDEIROS ROSA</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VALENTINA MOREIRA DA SILVA</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>VALENTIN DA SILVA RAFAEL</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>ITALO SANTOS DE SAO JUSTO</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>RAFAELLA VENTURA DE SALES</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
       <c r="O6" t="n">
         <v>1</v>
       </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>DAVI HENRIQUE DE ASSIS DO ROZARIO</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="U6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>RIQUELME TAVARES ALMEIDA</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="X6" t="n">
-        <v>1</v>
-      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>IAN SOUZA DO NASCIMENTO</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HEITOR LUCAS ALMEIDA</t>
+          <t>EMANUEL SILVA VARELA</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -1055,12 +1005,12 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>RIQUELME DA SILVA COSTA</t>
+          <t>MATIAS MEDEIROS ROSA</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -1068,7 +1018,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>GUILHERME ROMAO DA SILVA</t>
+          <t>MICAELA CARDOSO DA SILVA NEVES</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1081,56 +1031,43 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>DAVI CORTEIS TEOFILO SOARES</t>
+          <t>DAVI SALOMAO ROCHA GERALDO</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="O7" t="n">
         <v>1</v>
       </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>HUGO LUIS FRANCELINO MANILHA</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="U7" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>GABRYELLA MARTINS DA SILVA</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="X7" t="n">
-        <v>1</v>
-      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>ARTHUR EMANUEL DE OLIVEIRA LIMA</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>JOAO RICARDO FERNANDES JOAQUIM DE ALMEIDA</t>
+          <t>CHRISTOPHER COSTA DAMASCENO</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>CORRECAO DE HIPOSPADIA (1º TEMPO) - PEDIATRICO</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -1141,12 +1078,12 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>RIQUELME DA SILVA COSTA</t>
+          <t>PABLO MIGUEL ALVES MOREIRA</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -1154,7 +1091,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>GAEL ARAUJO DOS SANTOS</t>
+          <t>MALU GURGEL MARTINS</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1167,56 +1104,43 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>FABIO ALVES DE MIRANDA</t>
+          <t>DANIEL SALOMAO ROCHA GERALDO</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="O8" t="n">
         <v>1</v>
       </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>LUIDY GABRIEL DE SOUZA EMIDIO</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="U8" t="n">
-        <v>1</v>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>RIQUELME TAVARES ALMEIDA</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="X8" t="n">
-        <v>1</v>
-      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>GUILHERME ALMEIDA TIBURCIO</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HEITOR LUCAS ALMEIDA</t>
+          <t>DIEGO LUCAS DA SILVA</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -1227,12 +1151,12 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>RIQUELME DA SILVA COSTA</t>
+          <t>LUIS GUILHERME FREITAS MELLO</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1240,7 +1164,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>PIETRO DANIEL SANTOS MACHADO</t>
+          <t>CRISTIANI ROCHA DOS SANTOS GONCALVES NASCIMENTO</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1253,56 +1177,43 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>OTHON ESTEVES LEMOS</t>
+          <t>PEDRO MYGUEL VIEIRA DE SOUZA</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="O9" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>DAVI HENRIQUE DE ASSIS DO ROZARIO</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>LUIZ MATHEUS FERREIRA DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
-      <c r="U9" t="n">
-        <v>1</v>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>ENZO GABRIEL NASCIMENTO DE OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="X9" t="n">
-        <v>1</v>
-      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HEITOR LUCAS ALMEIDA</t>
+          <t>DAVI CRISTIAN LIMA DA CRUZ</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -1313,12 +1224,12 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>RIQUELME DA SILVA COSTA</t>
+          <t>PABLO MIGUEL ALVES MOREIRA</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1326,7 +1237,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>PEDRO PATRICK PONTES DE LIMA</t>
+          <t>JOHN RICHARD SILVA MENDES</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1337,58 +1248,35 @@
       <c r="L10" t="n">
         <v>1</v>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>KAIQUE ANTUNES MARQUES</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>HUGO LUIS FRANCELINO MANILHA</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>CORRECAO DE HIPOSPADIA (1º TEMPO) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="U10" t="n">
-        <v>1</v>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>GABRYELLA MARTINS DA SILVA</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="X10" t="n">
-        <v>1</v>
-      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>LUIZ MATHEUS FERREIRA DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HEITOR LUCAS ALMEIDA</t>
+          <t>DIEGO LUCAS DA SILVA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1399,12 +1287,12 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>BERNARDO DE PAULA MINEIRO SANTOS</t>
+          <t>LUIS GUILHERME FREITAS MELLO</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>CORRECAO DE HIPOSPADIA (1º TEMPO) - PEDIATRICO</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1412,7 +1300,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>JOAO ARTHUR FERNANDES DE VASCONCELOS</t>
+          <t>PEDRO HENRIQUE MENDES MATHIAS</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1423,48 +1311,35 @@
       <c r="L11" t="n">
         <v>1</v>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>LUISA DE SOUZA FORTES</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>GUILHERME ALMEIDA TIBURCIO</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>RIQUELME TAVARES ALMEIDA</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="X11" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MARLON MIGUEL MOREIRA SANTOS DA SILVA</t>
+          <t>EMANUEL SILVA VARELA</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1475,73 +1350,60 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>BERNARDO DE PAULA MINEIRO SANTOS</t>
+          <t>LUIS GUILHERME FREITAS MELLO</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>MALU GURGEL MARTINS</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
           <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>GUILHERME ROMAO DA SILVA</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
-        </is>
-      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>JASMYNE DE SOUZA BARRETO</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>IAN SOUZA DO NASCIMENTO</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
+        <v>1</v>
+      </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>MARLON MIGUEL MOREIRA SANTOS DA SILVA</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>BERNARDO DE PAULA MINEIRO SANTOS</t>
+          <t>PABLO MIGUEL ALVES MOREIRA</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1554,54 +1416,41 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>GUILHERME ROMAO DA SILVA</t>
+          <t>JOHN RICHARD SILVA MENDES</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>OTHON ESTEVES LEMOS</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>ARTHUR EMANUEL DE OLIVEIRA LIMA</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>ALLANA SAMARA BARRETO ALVES DA SILVA</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
@@ -1610,54 +1459,41 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>GAEL ARAUJO DOS SANTOS</t>
+          <t>MIRELLA SOPHIA LOPES LIRA</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>FABIO ALVES DE MIRANDA</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>GUILHERME ALMEIDA TIBURCIO</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ISADORA MACHADO MACEDO</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
@@ -1666,54 +1502,31 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>PIETRO DANIEL SANTOS MACHADO</t>
+          <t>HELOISA LOPES DA COSTA</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>OTHON ESTEVES LEMOS</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>JOHN LUCCA DIAS GUILHERME</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
@@ -1722,54 +1535,31 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>GAEL ARAUJO DOS SANTOS</t>
+          <t>MICAELA CARDOSO DA SILVA NEVES</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>OTHON ESTEVES LEMOS</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ANNA MIRELLA DA SILVA GRILLO</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
@@ -1778,54 +1568,31 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>PIETRO DANIEL SANTOS MACHADO</t>
+          <t>VALENTINA MOREIRA DA SILVA</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>DAVI CORTEIS TEOFILO SOARES</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>ALLANA SAMARA BARRETO ALVES DA SILVA</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
@@ -1834,54 +1601,31 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>GUILHERME ROMAO DA SILVA</t>
+          <t>ARTHUR SANTOS MOLINA</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>RAFAELLA VENTURA DE SALES</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="O18" t="n">
-        <v>1</v>
-      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>ANNA MIRELLA DA SILVA GRILLO</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
@@ -1890,54 +1634,31 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>JOAO ARTHUR FERNANDES DE VASCONCELOS</t>
+          <t>CRISTIANI ROCHA DOS SANTOS GONCALVES NASCIMENTO</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>LUAN VITOR MAGALHAES OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>JOHN LUCCA DIAS GUILHERME</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
@@ -1946,54 +1667,31 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>ITALO SANTOS DE SAO JUSTO</t>
+          <t>NOAH GABRIEL DOS SANTOS BARBOSA</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>FABIO ALVES DE MIRANDA</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="O20" t="n">
-        <v>1</v>
-      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>ISADORA MACHADO MACEDO</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
@@ -2002,12 +1700,12 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>PEDRO PATRICK PONTES DE LIMA</t>
+          <t>VALENTINA MOREIRA DA SILVA</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -2022,33 +1720,30 @@
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>ALLANA SAMARA BARRETO ALVES DA SILVA</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>NOAH GABRIEL DOS SANTOS BARBOSA</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -2058,33 +1753,30 @@
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LENDROLEO VINICIUS DOS SANTOS SILVA</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>LORENZO BATISTA GOMES</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -2094,33 +1786,30 @@
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>THIAGO BATISTA DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>LORENZO DOMINGOS FERREIRA DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -2130,33 +1819,30 @@
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>THIAGO BATISTA DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>GABRIEL SILVA DE SOUZA</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -2166,33 +1852,30 @@
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>LENDROLEO VINICIUS DOS SANTOS SILVA</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>1</v>
-      </c>
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>MANUELLA MENDES MARCAL</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -2202,33 +1885,30 @@
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>LENDROLEO VINICIUS DOS SANTOS SILVA</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>1</v>
-      </c>
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>GABRIEL SILVA DE SOUZA</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
@@ -2238,9 +1918,171 @@
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>LORENZO BATISTA GOMES</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>LORENZO DOMINGOS FERREIRA DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>GABRIEL SILVA DE SOUZA</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>MANUELLA MENDES MARCAL</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>LORENZO BATISTA GOMES</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2253,7 +2095,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K102"/>
+  <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2326,17 +2168,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20/10/2025 11:00</t>
+          <t>01/12/2025 11:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HEITOR LUCAS ALMEIDA</t>
+          <t>CHRISTOPHER COSTA DAMASCENO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20/05/2021</t>
+          <t>07/07/2016</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -2381,17 +2223,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>20/10/2025 11:00</t>
+          <t>01/12/2025 11:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MARLON MIGUEL MOREIRA SANTOS DA SILVA</t>
+          <t>DAVI CRISTIAN LIMA DA CRUZ</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23/12/2022</t>
+          <t>28/07/2012</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -2436,17 +2278,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>20/10/2025 11:00</t>
+          <t>01/12/2025 11:00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>JOAO RICARDO FERNANDES JOAQUIM DE ALMEIDA</t>
+          <t>DIEGO LUCAS DA SILVA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>02/05/2017</t>
+          <t>01/12/2018</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -2491,22 +2333,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>25/10/2025 07:00</t>
+          <t>01/12/2025 11:00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>JOAO RICARDO FERNANDES JOAQUIM DE ALMEIDA</t>
+          <t>EMANUEL SILVA VARELA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>02/05/2017</t>
+          <t>28/10/2019</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -2514,7 +2356,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -2529,12 +2371,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
@@ -2546,22 +2388,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>25/10/2025 07:00</t>
+          <t>05/12/2025 07:00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MARLON MIGUEL MOREIRA SANTOS DA SILVA</t>
+          <t>CHRISTOPHER COSTA DAMASCENO</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>23/12/2022</t>
+          <t>07/07/2016</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -2569,7 +2411,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2584,12 +2426,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
@@ -2601,22 +2443,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>25/10/2025 07:00</t>
+          <t>05/12/2025 07:00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>HEITOR LUCAS ALMEIDA</t>
+          <t>EMANUEL SILVA VARELA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>20/05/2021</t>
+          <t>28/10/2019</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -2624,7 +2466,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 5.239,94</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2639,12 +2481,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 610,06</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 5.850,00</t>
         </is>
       </c>
     </row>
@@ -2656,22 +2498,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>25/10/2025 07:00</t>
+          <t>05/12/2025 07:00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>JOAO RICARDO FERNANDES JOAQUIM DE ALMEIDA</t>
+          <t>CHRISTOPHER COSTA DAMASCENO</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>02/05/2017</t>
+          <t>07/07/2016</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>CORRECAO DE HIPOSPADIA (1º TEMPO) - PEDIATRICO</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -2679,7 +2521,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 6.235,90</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -2694,12 +2536,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 372,96</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 6.608,86</t>
         </is>
       </c>
     </row>
@@ -2711,22 +2553,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>25/10/2025 07:00</t>
+          <t>05/12/2025 07:00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>HEITOR LUCAS ALMEIDA</t>
+          <t>DIEGO LUCAS DA SILVA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>20/05/2021</t>
+          <t>01/12/2018</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -2734,7 +2576,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>R$ 5.239,94</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -2749,12 +2591,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>R$ 610,06</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>R$ 5.850,00</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
@@ -2766,22 +2608,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>25/10/2025 07:00</t>
+          <t>05/12/2025 07:00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>HEITOR LUCAS ALMEIDA</t>
+          <t>DAVI CRISTIAN LIMA DA CRUZ</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>20/05/2021</t>
+          <t>28/07/2012</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -2789,7 +2631,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>R$ 6.772,46</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2804,12 +2646,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>R$ 385,32</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>R$ 7.157,78</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
@@ -2821,22 +2663,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>25/10/2025 07:00</t>
+          <t>05/12/2025 07:00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>HEITOR LUCAS ALMEIDA</t>
+          <t>DIEGO LUCAS DA SILVA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>20/05/2021</t>
+          <t>01/12/2018</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -2844,7 +2686,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 4.802,07</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2859,12 +2701,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 434,99</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>
@@ -2876,22 +2718,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>25/10/2025 07:00</t>
+          <t>05/12/2025 07:00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MARLON MIGUEL MOREIRA SANTOS DA SILVA</t>
+          <t>EMANUEL SILVA VARELA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>23/12/2022</t>
+          <t>28/10/2019</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -2899,7 +2741,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>R$ 5.239,94</t>
+          <t>R$ 4.802,07</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2914,39 +2756,39 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>R$ 610,06</t>
+          <t>R$ 434,99</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>R$ 5.850,00</t>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>25/10/2025 07:00</t>
+          <t>08/12/2025 11:00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>MARLON MIGUEL MOREIRA SANTOS DA SILVA</t>
+          <t>GUILHERME FERREIRA DA COSTA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23/12/2022</t>
+          <t>11/04/2020</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -2954,7 +2796,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2969,39 +2811,39 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>27/10/2025 11:00</t>
+          <t>12/12/2025 07:00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ALLANA SAMARA BARRETO ALVES DA SILVA</t>
+          <t>GUILHERME FERREIRA DA COSTA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>26/07/2021</t>
+          <t>11/04/2020</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -3009,7 +2851,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.802,07</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -3024,39 +2866,39 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 434,99</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>27/10/2025 11:00</t>
+          <t>12/12/2025 07:00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ISADORA MACHADO MACEDO</t>
+          <t>GUILHERME FERREIRA DA COSTA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>05/02/2021</t>
+          <t>11/04/2020</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -3064,7 +2906,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -3079,39 +2921,39 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>27/10/2025 11:00</t>
+          <t>12/12/2025 11:00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>JOHN LUCCA DIAS GUILHERME</t>
+          <t>GUILHERME FERREIRA DA COSTA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>26/03/2019</t>
+          <t>11/04/2020</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -3119,7 +2961,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 5.239,94</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -3134,34 +2976,34 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 610,06</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.850,00</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>27/10/2025 11:00</t>
+          <t>01/12/2025 11:00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ANNA MIRELLA DA SILVA GRILLO</t>
+          <t>LORENA TEIXEIRA ROMEU DIAS</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>16/11/2015</t>
+          <t>12/07/2021</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -3201,27 +3043,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>28/10/2025 07:00</t>
+          <t>01/12/2025 11:00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ALLANA SAMARA BARRETO ALVES DA SILVA</t>
+          <t>MATIAS MEDEIROS ROSA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>26/07/2021</t>
+          <t>18/11/2017</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -3229,7 +3071,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>R$ 5.239,94</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -3244,39 +3086,39 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>R$ 610,06</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>R$ 5.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>28/10/2025 07:00</t>
+          <t>06/12/2025 07:00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ANNA MIRELLA DA SILVA GRILLO</t>
+          <t>MATIAS MEDEIROS ROSA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>16/11/2015</t>
+          <t>18/11/2017</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -3284,7 +3126,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 5.239,94</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -3299,39 +3141,39 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 610,06</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 5.850,00</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>28/10/2025 07:00</t>
+          <t>06/12/2025 07:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>JOHN LUCCA DIAS GUILHERME</t>
+          <t>LORENA TEIXEIRA ROMEU DIAS</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>26/03/2019</t>
+          <t>12/07/2021</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -3339,7 +3181,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 5.239,94</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -3354,34 +3196,34 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 610,06</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 5.850,00</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>28/10/2025 07:00</t>
+          <t>06/12/2025 07:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ISADORA MACHADO MACEDO</t>
+          <t>MATIAS MEDEIROS ROSA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>05/02/2021</t>
+          <t>18/11/2017</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -3421,27 +3263,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>28/10/2025 15:00</t>
+          <t>06/12/2025 07:00</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ALLANA SAMARA BARRETO ALVES DA SILVA</t>
+          <t>MATIAS MEDEIROS ROSA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>26/07/2021</t>
+          <t>18/11/2017</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -3449,7 +3291,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -3464,34 +3306,34 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>03/11/2025 11:00</t>
+          <t>08/12/2025 11:00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>LENDROLEO VINICIUS DOS SANTOS SILVA</t>
+          <t>PABLO MIGUEL ALVES MOREIRA</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>12/03/2020</t>
+          <t>29/08/2023</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -3531,22 +3373,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>03/11/2025 11:00</t>
+          <t>08/12/2025 11:00</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>THIAGO BATISTA DOS SANTOS</t>
+          <t>LUIS GUILHERME FREITAS MELLO</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>03/04/2015</t>
+          <t>15/03/2021</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -3586,27 +3428,27 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>08/11/2025 07:00</t>
+          <t>13/12/2025 07:00</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>THIAGO BATISTA DOS SANTOS</t>
+          <t>PABLO MIGUEL ALVES MOREIRA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>03/04/2015</t>
+          <t>29/08/2023</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -3614,7 +3456,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 6.772,46</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -3629,39 +3471,39 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 385,32</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 7.157,78</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>08/11/2025 07:00</t>
+          <t>13/12/2025 07:00</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>LENDROLEO VINICIUS DOS SANTOS SILVA</t>
+          <t>LUIS GUILHERME FREITAS MELLO</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>12/03/2020</t>
+          <t>15/03/2021</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>CORRECAO DE HIPOSPADIA (1º TEMPO) - PEDIATRICO</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -3669,7 +3511,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 6.235,90</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -3684,39 +3526,39 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 372,96</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 6.608,86</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>10/11/2025 15:00</t>
+          <t>13/12/2025 07:00</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>LENDROLEO VINICIUS DOS SANTOS SILVA</t>
+          <t>LUIS GUILHERME FREITAS MELLO</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>12/03/2020</t>
+          <t>15/03/2021</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -3724,7 +3566,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 5.239,94</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -3739,39 +3581,39 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 610,06</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 5.850,00</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>RJ - Itaguaí</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>03/11/2025 11:00</t>
+          <t>13/12/2025 07:00</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>KAIQUE DE SA GONCALVES</t>
+          <t>PABLO MIGUEL ALVES MOREIRA</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>17/05/2017</t>
+          <t>29/08/2023</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -3779,7 +3621,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 5.239,94</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -3794,39 +3636,39 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 610,06</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.850,00</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>RJ - Itaguaí</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>08/11/2025 07:00</t>
+          <t>01/12/2025 11:00</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>KAIQUE DE SA GONCALVES</t>
+          <t>HELOISA LOPES DA COSTA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>17/05/2017</t>
+          <t>03/01/2022</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -3834,7 +3676,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>R$ 5.239,94</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -3849,39 +3691,39 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>R$ 610,06</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>R$ 5.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>RJ - Itaguaí</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>08/11/2025 07:00</t>
+          <t>01/12/2025 11:00</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>KAIQUE DE SA GONCALVES</t>
+          <t>NOAH GABRIEL DOS SANTOS BARBOSA</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>17/05/2017</t>
+          <t>12/05/2022</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -3889,7 +3731,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -3904,34 +3746,34 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>RJ - Japeri</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>20/10/2025 11:00</t>
+          <t>01/12/2025 11:00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>YURI MARTINS DE AZEVEDO</t>
+          <t>MIRELLA SOPHIA LOPES LIRA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>18/01/2016</t>
+          <t>21/03/2018</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3971,22 +3813,22 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>RJ - Japeri</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>20/10/2025 11:00</t>
+          <t>01/12/2025 11:00</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>MARIA EDUARDA DOS SANTOS SILVA</t>
+          <t>ARTHUR SANTOS MOLINA</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>13/03/2019</t>
+          <t>29/10/2017</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -4026,27 +3868,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>RJ - Japeri</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>25/10/2025 07:00</t>
+          <t>01/12/2025 11:00</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MARIA EDUARDA DOS SANTOS SILVA</t>
+          <t>VALENTINA MOREIRA DA SILVA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>13/03/2019</t>
+          <t>19/12/2018</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -4054,7 +3896,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -4069,39 +3911,39 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>RJ - Japeri</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>25/10/2025 07:00</t>
+          <t>01/12/2025 11:00</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>YURI MARTINS DE AZEVEDO</t>
+          <t>MICAELA CARDOSO DA SILVA NEVES</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>18/01/2016</t>
+          <t>03/10/2013</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -4109,7 +3951,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -4124,39 +3966,39 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>RJ - Japeri</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>25/10/2025 07:00</t>
+          <t>01/12/2025 11:00</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>YURI MARTINS DE AZEVEDO</t>
+          <t>MALU GURGEL MARTINS</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>18/01/2016</t>
+          <t>25/02/2019</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -4164,7 +4006,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -4179,34 +4021,34 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>RJ - Japeri</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>03/11/2025 11:00</t>
+          <t>01/12/2025 11:00</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>RIQUELME DA SILVA COSTA</t>
+          <t>CRISTIANI ROCHA DOS SANTOS GONCALVES NASCIMENTO</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>06/08/2016</t>
+          <t>21/03/2022</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -4246,27 +4088,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>RJ - Japeri</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>08/11/2025 07:00</t>
+          <t>01/12/2025 11:00</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>RIQUELME DA SILVA COSTA</t>
+          <t>JOHN RICHARD SILVA MENDES</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>06/08/2016</t>
+          <t>07/07/2017</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -4274,7 +4116,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -4289,39 +4131,39 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>RJ - Japeri</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>08/11/2025 07:00</t>
+          <t>01/12/2025 11:00</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>RIQUELME DA SILVA COSTA</t>
+          <t>PEDRO HENRIQUE MENDES MATHIAS</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>06/08/2016</t>
+          <t>15/07/2018</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -4329,7 +4171,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>R$ 6.772,46</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -4344,39 +4186,39 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>R$ 385,32</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>R$ 7.157,78</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>RJ - Japeri</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>08/11/2025 07:00</t>
+          <t>05/12/2025 07:00</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>RIQUELME DA SILVA COSTA</t>
+          <t>MALU GURGEL MARTINS</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>06/08/2016</t>
+          <t>25/02/2019</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -4384,7 +4226,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 4.802,07</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -4399,39 +4241,39 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 434,99</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>RJ - Japeri</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>17/11/2025 11:00</t>
+          <t>05/12/2025 07:00</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>BERNARDO DE PAULA MINEIRO SANTOS</t>
+          <t>JOHN RICHARD SILVA MENDES</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>30/09/2015</t>
+          <t>07/07/2017</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -4439,7 +4281,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.802,07</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -4454,34 +4296,34 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 434,99</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>RJ - Japeri</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>18/11/2025 07:00</t>
+          <t>05/12/2025 07:00</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>BERNARDO DE PAULA MINEIRO SANTOS</t>
+          <t>MIRELLA SOPHIA LOPES LIRA</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>30/09/2015</t>
+          <t>21/03/2018</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -4521,22 +4363,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>RJ - Japeri</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>18/11/2025 11:00</t>
+          <t>06/12/2025 07:00</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>BERNARDO DE PAULA MINEIRO SANTOS</t>
+          <t>HELOISA LOPES DA COSTA</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>30/09/2015</t>
+          <t>03/01/2022</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -4576,27 +4418,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>27/10/2025 11:00</t>
+          <t>06/12/2025 07:00</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>BRAYAN BAPTISTA EDMUNDO</t>
+          <t>MICAELA CARDOSO DA SILVA NEVES</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>26/06/2019</t>
+          <t>03/10/2013</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -4604,7 +4446,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.802,07</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -4619,39 +4461,39 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 434,99</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>27/10/2025 11:00</t>
+          <t>06/12/2025 07:00</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>NICOLLAS SOUZA DE JESUS</t>
+          <t>VALENTINA MOREIRA DA SILVA</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>01/06/2015</t>
+          <t>19/12/2018</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -4659,7 +4501,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 5.239,94</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -4674,39 +4516,39 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 610,06</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.850,00</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>28/10/2025 07:00</t>
+          <t>06/12/2025 07:00</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>NICOLLAS SOUZA DE JESUS</t>
+          <t>ARTHUR SANTOS MOLINA</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>01/06/2015</t>
+          <t>29/10/2017</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -4714,7 +4556,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 4.802,07</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -4729,39 +4571,39 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 434,99</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>28/10/2025 07:00</t>
+          <t>06/12/2025 07:00</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>BRAYAN BAPTISTA EDMUNDO</t>
+          <t>CRISTIANI ROCHA DOS SANTOS GONCALVES NASCIMENTO</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>26/06/2019</t>
+          <t>21/03/2022</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -4769,7 +4611,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 5.239,94</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -4784,39 +4626,39 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 610,06</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 5.850,00</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>03/11/2025 11:00</t>
+          <t>06/12/2025 07:00</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ITALO SANTOS DE SAO JUSTO</t>
+          <t>NOAH GABRIEL DOS SANTOS BARBOSA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>12/05/2022</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -4824,7 +4666,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 5.239,94</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -4839,39 +4681,39 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 610,06</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.850,00</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>03/11/2025 11:00</t>
+          <t>06/12/2025 07:00</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>GUILHERME ROMAO DA SILVA</t>
+          <t>VALENTINA MOREIRA DA SILVA</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>21/08/2017</t>
+          <t>19/12/2018</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -4879,7 +4721,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.802,07</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -4894,39 +4736,39 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 434,99</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>03/11/2025 11:00</t>
+          <t>06/12/2025 07:00</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>GAEL ARAUJO DOS SANTOS</t>
+          <t>NOAH GABRIEL DOS SANTOS BARBOSA</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>17/10/2019</t>
+          <t>12/05/2022</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -4934,7 +4776,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -4949,34 +4791,34 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>03/11/2025 11:00</t>
+          <t>08/12/2025 11:00</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>PIETRO DANIEL SANTOS MACHADO</t>
+          <t>LORENZO BATISTA GOMES</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>28/05/2017</t>
+          <t>01/05/2019</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -5016,22 +4858,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>03/11/2025 11:00</t>
+          <t>08/12/2025 11:00</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>PEDRO PATRICK PONTES DE LIMA</t>
+          <t>LORENZO DOMINGOS FERREIRA DE OLIVEIRA</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>09/05/2020</t>
+          <t>16/09/2018</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -5071,22 +4913,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>03/11/2025 11:00</t>
+          <t>08/12/2025 11:00</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>JOAO ARTHUR FERNANDES DE VASCONCELOS</t>
+          <t>GABRIEL SILVA DE SOUZA</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>31/08/2019</t>
+          <t>26/06/2017</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -5126,27 +4968,27 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>07/11/2025 07:00</t>
+          <t>08/12/2025 11:00</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>GUILHERME ROMAO DA SILVA</t>
+          <t>MANUELLA MENDES MARCAL</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>21/08/2017</t>
+          <t>20/03/2019</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -5154,7 +4996,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>R$ 6.772,46</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -5169,39 +5011,39 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>R$ 385,32</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>R$ 7.157,78</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>07/11/2025 07:00</t>
+          <t>12/12/2025 07:00</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>GUILHERME ROMAO DA SILVA</t>
+          <t>GABRIEL SILVA DE SOUZA</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>21/08/2017</t>
+          <t>26/06/2017</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -5209,7 +5051,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>R$ 5.239,94</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -5224,39 +5066,39 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>R$ 610,06</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>R$ 5.850,00</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>07/11/2025 07:00</t>
+          <t>12/12/2025 07:00</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>GAEL ARAUJO DOS SANTOS</t>
+          <t>LORENZO BATISTA GOMES</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>17/10/2019</t>
+          <t>01/05/2019</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -5264,7 +5106,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>R$ 6.772,46</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -5279,39 +5121,39 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>R$ 385,32</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>R$ 7.157,78</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>07/11/2025 07:00</t>
+          <t>12/12/2025 07:00</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>PIETRO DANIEL SANTOS MACHADO</t>
+          <t>LORENZO DOMINGOS FERREIRA DE OLIVEIRA</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>28/05/2017</t>
+          <t>16/09/2018</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -5319,7 +5161,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>R$ 6.772,46</t>
+          <t>R$ 4.802,07</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -5334,39 +5176,39 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>R$ 385,32</t>
+          <t>R$ 434,99</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>R$ 7.157,78</t>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>07/11/2025 07:00</t>
+          <t>12/12/2025 07:00</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>GAEL ARAUJO DOS SANTOS</t>
+          <t>GABRIEL SILVA DE SOUZA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>17/10/2019</t>
+          <t>26/06/2017</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -5374,7 +5216,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 4.802,07</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -5389,39 +5231,39 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 434,99</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>07/11/2025 07:00</t>
+          <t>12/12/2025 07:00</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>PIETRO DANIEL SANTOS MACHADO</t>
+          <t>MANUELLA MENDES MARCAL</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>28/05/2017</t>
+          <t>20/03/2019</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -5429,7 +5271,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 4.802,07</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -5444,39 +5286,39 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 434,99</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>07/11/2025 07:00</t>
+          <t>12/12/2025 07:00</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>GUILHERME ROMAO DA SILVA</t>
+          <t>LORENZO BATISTA GOMES</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>21/08/2017</t>
+          <t>01/05/2019</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -5484,7 +5326,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 5.239,94</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -5499,39 +5341,39 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 610,06</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 5.850,00</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Queimados</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>07/11/2025 07:00</t>
+          <t>24/11/2025 11:00</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>JOAO ARTHUR FERNANDES DE VASCONCELOS</t>
+          <t>VALENTIN DA SILVA RAFAEL</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>31/08/2019</t>
+          <t>23/03/2021</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -5539,7 +5381,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -5554,39 +5396,39 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Queimados</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>07/11/2025 07:00</t>
+          <t>24/11/2025 11:00</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>ITALO SANTOS DE SAO JUSTO</t>
+          <t>PEDRO MYGUEL VIEIRA DE SOUZA</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>18/08/2014</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -5594,7 +5436,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -5609,39 +5451,39 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Queimados</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>07/11/2025 07:00</t>
+          <t>24/11/2025 11:00</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>PEDRO PATRICK PONTES DE LIMA</t>
+          <t>DANIEL SALOMAO ROCHA GERALDO</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>09/05/2020</t>
+          <t>27/10/2019</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -5649,7 +5491,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -5664,34 +5506,34 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Queimados</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>20/10/2025 11:00</t>
+          <t>24/11/2025 11:00</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>KAIQUE ANTUNES MARQUES</t>
+          <t>DAVI SALOMAO ROCHA GERALDO</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>09/08/2013</t>
+          <t>27/10/2019</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -5731,27 +5573,27 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Queimados</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>20/10/2025 11:00</t>
+          <t>28/11/2025 07:00</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>JASMYNE DE SOUZA BARRETO</t>
+          <t>VALENTIN DA SILVA RAFAEL</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>09/08/2019</t>
+          <t>23/03/2021</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -5759,7 +5601,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -5774,39 +5616,39 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Queimados</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>20/10/2025 11:00</t>
+          <t>28/11/2025 07:00</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>LUISA DE SOUZA FORTES</t>
+          <t>DAVI SALOMAO ROCHA GERALDO</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>30/04/2020</t>
+          <t>27/10/2019</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -5814,7 +5656,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -5829,39 +5671,39 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Queimados</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>20/10/2025 11:00</t>
+          <t>28/11/2025 07:00</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>LUAN VITOR MAGALHAES OLIVEIRA</t>
+          <t>DANIEL SALOMAO ROCHA GERALDO</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>27/10/2019</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -5869,7 +5711,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -5884,39 +5726,39 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Queimados</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>20/10/2025 11:00</t>
+          <t>29/11/2025 07:00</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>RAFAELLA VENTURA DE SALES</t>
+          <t>PEDRO MYGUEL VIEIRA DE SOUZA</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>02/08/2024</t>
+          <t>18/08/2014</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -5924,7 +5766,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -5939,34 +5781,34 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - São João de Meriti</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>20/10/2025 11:00</t>
+          <t>24/11/2025 11:00</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>DAVI CORTEIS TEOFILO SOARES</t>
+          <t>MIGUEL LUIZ BASTOS ROCHA DA SILVA</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>05/08/2013</t>
+          <t>28/04/2020</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -6006,22 +5848,22 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - São João de Meriti</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>20/10/2025 11:00</t>
+          <t>24/11/2025 11:00</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>FABIO ALVES DE MIRANDA</t>
+          <t>JOSE ANTONIO LOMAR RIBEIRO</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>09/04/2018</t>
+          <t>23/04/2021</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -6061,27 +5903,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - São João de Meriti</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>20/10/2025 11:00</t>
+          <t>28/11/2025 07:00</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>OTHON ESTEVES LEMOS</t>
+          <t>JOSE ANTONIO LOMAR RIBEIRO</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>16/04/2022</t>
+          <t>23/04/2021</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -6089,7 +5931,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -6104,39 +5946,39 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - São João de Meriti</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>24/10/2025 07:00</t>
+          <t>08/12/2025 11:00</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>KAIQUE ANTUNES MARQUES</t>
+          <t>LUIZ MATHEUS FERREIRA DOS SANTOS</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>09/08/2013</t>
+          <t>31/01/2014</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -6144,7 +5986,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -6159,39 +6001,39 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - São João de Meriti</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>24/10/2025 07:00</t>
+          <t>08/12/2025 11:00</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>LUISA DE SOUZA FORTES</t>
+          <t>IAN SOUZA DO NASCIMENTO</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>30/04/2020</t>
+          <t>13/10/2015</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -6199,7 +6041,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>R$ 5.239,94</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -6214,39 +6056,39 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>R$ 610,06</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>R$ 5.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - São João de Meriti</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>24/10/2025 07:00</t>
+          <t>08/12/2025 11:00</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>JASMYNE DE SOUZA BARRETO</t>
+          <t>ARTHUR EMANUEL DE OLIVEIRA LIMA</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>09/08/2019</t>
+          <t>25/02/2022</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -6254,7 +6096,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>R$ 5.239,94</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -6269,39 +6111,39 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>R$ 610,06</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>R$ 5.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - São João de Meriti</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>24/10/2025 07:00</t>
+          <t>08/12/2025 11:00</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>OTHON ESTEVES LEMOS</t>
+          <t>GUILHERME ALMEIDA TIBURCIO</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>16/04/2022</t>
+          <t>04/09/2021</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -6309,7 +6151,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -6324,34 +6166,34 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - São João de Meriti</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>24/10/2025 07:00</t>
+          <t>12/12/2025 07:00</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>FABIO ALVES DE MIRANDA</t>
+          <t>LUIZ MATHEUS FERREIRA DOS SANTOS</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>09/04/2018</t>
+          <t>31/01/2014</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -6391,27 +6233,27 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - São João de Meriti</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>24/10/2025 07:00</t>
+          <t>12/12/2025 07:00</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>OTHON ESTEVES LEMOS</t>
+          <t>LUIZ MATHEUS FERREIRA DOS SANTOS</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>16/04/2022</t>
+          <t>31/01/2014</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -6419,7 +6261,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>R$ 6.772,46</t>
+          <t>R$ 4.802,07</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -6434,39 +6276,39 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>R$ 385,32</t>
+          <t>R$ 434,99</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>R$ 7.157,78</t>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - São João de Meriti</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>24/10/2025 07:00</t>
+          <t>13/12/2025 07:00</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>OTHON ESTEVES LEMOS</t>
+          <t>GUILHERME ALMEIDA TIBURCIO</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>16/04/2022</t>
+          <t>04/09/2021</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -6474,7 +6316,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>R$ 5.239,94</t>
+          <t>R$ 4.802,07</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -6489,34 +6331,34 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>R$ 610,06</t>
+          <t>R$ 434,99</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>R$ 5.850,00</t>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - São João de Meriti</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>24/10/2025 07:00</t>
+          <t>13/12/2025 07:00</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>DAVI CORTEIS TEOFILO SOARES</t>
+          <t>IAN SOUZA DO NASCIMENTO</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>05/08/2013</t>
+          <t>13/10/2015</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -6556,27 +6398,27 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - São João de Meriti</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>24/10/2025 07:00</t>
+          <t>13/12/2025 07:00</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>RAFAELLA VENTURA DE SALES</t>
+          <t>ARTHUR EMANUEL DE OLIVEIRA LIMA</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>02/08/2024</t>
+          <t>25/02/2022</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -6584,7 +6426,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -6599,34 +6441,34 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - São João de Meriti</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>24/10/2025 07:00</t>
+          <t>13/12/2025 07:00</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>LUAN VITOR MAGALHAES OLIVEIRA</t>
+          <t>GUILHERME ALMEIDA TIBURCIO</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>04/09/2021</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -6666,27 +6508,27 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>24/10/2025 07:00</t>
+          <t>24/11/2025 11:00</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>FABIO ALVES DE MIRANDA</t>
+          <t>NATHALIA DOS SANTOS PEREIRA</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>09/04/2018</t>
+          <t>02/05/2019</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -6694,7 +6536,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>R$ 5.239,94</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -6709,34 +6551,34 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>R$ 610,06</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>R$ 5.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>20/10/2025 11:00</t>
+          <t>24/11/2025 11:00</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>PEDRO LUCAS RIBEIRO JULIAO DE SOUZA</t>
+          <t>HELENA ROCHA DA SILVA BRAGA</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>28/07/2020</t>
+          <t>25/01/2024</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -6776,27 +6618,27 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>25/10/2025 07:00</t>
+          <t>28/11/2025 07:00</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>PEDRO LUCAS RIBEIRO JULIAO DE SOUZA</t>
+          <t>NATHALIA DOS SANTOS PEREIRA</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>28/07/2020</t>
+          <t>02/05/2019</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -6804,7 +6646,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 5.239,94</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -6819,39 +6661,39 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 610,06</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 5.850,00</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>27/10/2025 11:00</t>
+          <t>28/11/2025 07:00</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>HENRY DE SOUZA MARIA DOS SANTOS</t>
+          <t>HELENA ROCHA DA SILVA BRAGA</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>27/05/2017</t>
+          <t>25/01/2024</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -6859,7 +6701,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 5.239,94</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -6874,1000 +6716,10 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 610,06</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>RJ - São João de Meriti</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>28/10/2025 07:00</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>HENRY DE SOUZA MARIA DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>27/05/2017</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F85" t="n">
-        <v>1</v>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>R$ 4.630,88</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>R$ 219,12</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>R$ 4.850,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>RJ - São João de Meriti</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>17/11/2025 11:00</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>HUGO LUIS FRANCELINO MANILHA</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>11/04/2016</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="F86" t="n">
-        <v>1</v>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>RJ - São João de Meriti</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>17/11/2025 11:00</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>LUIDY GABRIEL DE SOUZA EMIDIO</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>12/06/2021</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="F87" t="n">
-        <v>1</v>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>RJ - São João de Meriti</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>17/11/2025 11:00</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>DAVI HENRIQUE DE ASSIS DO ROZARIO</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>13/05/2020</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="F88" t="n">
-        <v>1</v>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>RJ - São João de Meriti</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>18/11/2025 07:00</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>HUGO LUIS FRANCELINO MANILHA</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>11/04/2016</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F89" t="n">
-        <v>1</v>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>R$ 4.630,88</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>R$ 219,12</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>R$ 4.850,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>RJ - São João de Meriti</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>18/11/2025 07:00</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>LUIDY GABRIEL DE SOUZA EMIDIO</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>12/06/2021</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F90" t="n">
-        <v>1</v>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>R$ 4.630,88</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>R$ 219,12</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>R$ 4.850,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>RJ - São João de Meriti</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>18/11/2025 07:00</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>DAVI HENRIQUE DE ASSIS DO ROZARIO</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>13/05/2020</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F91" t="n">
-        <v>1</v>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>R$ 4.630,88</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>R$ 219,12</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>R$ 4.850,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>RJ - São João de Meriti</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>18/11/2025 11:00</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>HUGO LUIS FRANCELINO MANILHA</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>11/04/2016</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>CORRECAO DE HIPOSPADIA (1º TEMPO) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F92" t="n">
-        <v>1</v>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>R$ 6.235,90</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>R$ 372,96</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>R$ 6.608,86</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>RJ - Seropédica</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>20/10/2025 11:00</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>samuel da silva pessoa</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>27/02/2014</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="F93" t="n">
-        <v>1</v>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>RJ - Seropédica</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>25/10/2025 07:00</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>samuel da silva pessoa</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>27/02/2014</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F94" t="n">
-        <v>1</v>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>R$ 4.802,07</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>R$ 434,99</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>R$ 5.237,06</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>RJ - Seropédica</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>17/11/2025 11:00</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>ENZO GABRIEL NASCIMENTO DE OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>11/02/2015</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="F95" t="n">
-        <v>1</v>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>RJ - Seropédica</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>17/11/2025 11:00</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>GABRYELLA MARTINS DA SILVA</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>22/10/2018</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="F96" t="n">
-        <v>1</v>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>RJ - Seropédica</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>17/11/2025 11:00</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>RIQUELME TAVARES ALMEIDA</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>23/05/2020</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="F97" t="n">
-        <v>1</v>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>RJ - Seropédica</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>18/11/2025 07:00</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>GABRYELLA MARTINS DA SILVA</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>22/10/2018</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F98" t="n">
-        <v>1</v>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>R$ 4.802,07</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>R$ 434,99</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>R$ 5.237,06</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>RJ - Seropédica</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>18/11/2025 07:00</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>RIQUELME TAVARES ALMEIDA</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>23/05/2020</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F99" t="n">
-        <v>1</v>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>R$ 4.802,07</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>R$ 434,99</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>R$ 5.237,06</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>RJ - Seropédica</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>18/11/2025 07:00</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>ENZO GABRIEL NASCIMENTO DE OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>11/02/2015</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F100" t="n">
-        <v>1</v>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>R$ 4.802,07</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>R$ 434,99</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>R$ 5.237,06</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>RJ - Seropédica</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>18/11/2025 11:00</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>GABRYELLA MARTINS DA SILVA</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>22/10/2018</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F101" t="n">
-        <v>1</v>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>R$ 5.239,94</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>R$ 610,06</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>R$ 5.850,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>RJ - Seropédica</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>18/11/2025 11:00</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>RIQUELME TAVARES ALMEIDA</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>23/05/2020</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F102" t="n">
-        <v>1</v>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>R$ 5.239,94</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>R$ 610,06</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
         <is>
           <t>R$ 5.850,00</t>
         </is>

--- a/relatorios_simplificados/separarNeomater_SIMPLIFICADO.xlsx
+++ b/relatorios_simplificados/separarNeomater_SIMPLIFICADO.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U32"/>
+  <dimension ref="A1:AG17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,546 +437,744 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Paciente RJ - Duque de Caxias</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>RJ - Duque de Caxias</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Quantidade RJ - Duque de Caxias</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Paciente RJ - Paracambi</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>RJ - Paracambi</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Quantidade RJ - Paracambi</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Paciente RJ - Seropédica</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>RJ - Seropédica</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Quantidade RJ - Seropédica</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Paciente RJ - Itaguaí</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>RJ - Itaguaí</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Quantidade RJ - Itaguaí</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Paciente RJ - Belford Roxo</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>RJ - Belford Roxo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Quantidade RJ - Belford Roxo</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Paciente RJ - Japeri</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>RJ - Japeri</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Quantidade RJ - Japeri</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Paciente RJ - Magé</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>RJ - Magé</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Quantidade RJ - Magé</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Paciente RJ - São João de Meriti</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>RJ - São João de Meriti</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Quantidade RJ - São João de Meriti</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Paciente RJ - Mesquita</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>RJ - Mesquita</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Quantidade RJ - Mesquita</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Paciente RJ - Queimados</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>RJ - Queimados</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Quantidade RJ - Queimados</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Paciente RJ - Nova Iguaçu</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Quantidade RJ - Nova Iguaçu</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Paciente RJ - Queimados</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>RJ - Queimados</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Quantidade RJ - Queimados</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Paciente RJ - São João de Meriti</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>RJ - São João de Meriti</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Quantidade RJ - São João de Meriti</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Paciente RJ - Seropédica</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>RJ - Seropédica</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Quantidade RJ - Seropédica</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHRISTOPHER COSTA DAMASCENO</t>
+          <t>NATHAN BAPTISTA DA SILVA ALVES</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>JOAO ISAC PITZR FERREIRA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>CLARICE GUIMARAES KIFFER DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>MIGUEL DA SILVA ALMEIDA</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>RICHARD SILVA DOS SANTOS AMANCIO</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>MALLU REIS NASCIMENTO</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>PEROLA HELENA LOPES RICARDO</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>GAEL SANTOS VARGAS</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="X2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>DAVI LUIZ DE ALMEIDA PEREIRA</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>GUILHERME FERREIRA DA COSTA</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="AA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>PIETRO COELHO DE AZEVEDO</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
         <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>LORENA TEIXEIRA ROMEU DIAS</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="AD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>ISADORA SANTOS DE SOUSA</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
         <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>HELOISA LOPES DA COSTA</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>VALENTIN DA SILVA RAFAEL</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>MIGUEL LUIZ BASTOS ROCHA DA SILVA</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="R2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>NATHALIA DOS SANTOS PEREIRA</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="U2" t="n">
+      <c r="AG2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DAVI CRISTIAN LIMA DA CRUZ</t>
+          <t>GIOVANNA VITORIA SILVA LUCIANO</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>BERNARDO FLORES DA CUNHA DE MORAES</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>JOAO PEDRO ESPIRITO SANTO DA ROCHA</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>MIGUEL DA SILVA ALMEIDA</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>RICHARD SILVA DOS SANTOS AMANCIO</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>MALLU REIS NASCIMENTO</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>JOAO PEDRO ZAMPIROLLI GAMA</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GUILHERME FERREIRA DA COSTA</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>GAEL SANTOS VARGAS</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="X3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>DAVI LUIZ DE ALMEIDA PEREIRA</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
         <is>
           <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>MATIAS MEDEIROS ROSA</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="AA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>BENTO SOUZA PEREIRA</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
         <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>NOAH GABRIEL DOS SANTOS BARBOSA</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
+      <c r="AD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>KEROLLAYNE VITORIA DA COSTA SILVA</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
         <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>PEDRO MYGUEL VIEIRA DE SOUZA</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>JOSE ANTONIO LOMAR RIBEIRO</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="R3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>HELENA ROCHA DA SILVA BRAGA</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="U3" t="n">
+      <c r="AG3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DIEGO LUCAS DA SILVA</t>
+          <t>MARIANA VIEIRA SOUZA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>AMIGDALECTOMIA- PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>BERNARDO FLORES DA CUNHA DE MORAES</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>RAFAELLA MARIA FRAGOSO FONTES DA SILVA MARTINS</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>DOUGLAS MORAES DOS REIS</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>JOAO PEDRO ZAMPIROLLI GAMA</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>CAIO BRAZ DOMINGOS MARTINS</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="AA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>ARTHUR PINHEIRO RESSURREICAO</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>GUILHERME FERREIRA DA COSTA</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>MATIAS MEDEIROS ROSA</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>MIRELLA SOPHIA LOPES LIRA</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>DANIEL SALOMAO ROCHA GERALDO</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>JOSE ANTONIO LOMAR RIBEIRO</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="R4" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>NATHALIA DOS SANTOS PEREIRA</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="U4" t="n">
+      <c r="AD4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>ISADORA SANTOS DE SOUSA</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="AG4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>EMANUEL SILVA VARELA</t>
+          <t>ALICE VIEIRA SOUZA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>AMIGDALECTOMIA- PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>HEITOR RAVI SILVERIO FELICIANO</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>ISAQUE GADIEL FERREIRA BARBOSA COSTA</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>DOUGLAS MORAES DOS REIS</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>JOAO PEDRO ZAMPIROLLI GAMA</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>LUIZ FERNANDO OLIVEIRA PRUDENTE</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="AA5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>ANA DE OLIVEIRA NASCIMENTO</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GUILHERME FERREIRA DA COSTA</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>LORENA TEIXEIRA ROMEU DIAS</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>ARTHUR SANTOS MOLINA</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="AD5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>ANGEL SOPHIA GONCALVES COUTO</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
         <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>DAVI SALOMAO ROCHA GERALDO</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>LUIZ MATHEUS FERREIRA DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="R5" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>HELENA ROCHA DA SILVA BRAGA</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="U5" t="n">
+      <c r="AG5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHRISTOPHER COSTA DAMASCENO</t>
+          <t>KEMILLY FERNANDES LIRA</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>LORENZZO DOS SANTOS BRUZAO</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>MATIAS MEDEIROS ROSA</t>
+          <t>TAYLER MATHEUS FERREIRA DOS SANTOS</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>VALENTINA MOREIRA DA SILVA</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>VALENTIN DA SILVA RAFAEL</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>IAN SOUZA DO NASCIMENTO</t>
+          <t>VICTOR HUGO DA SILVA DE SOUZA</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="R6" t="n">
@@ -985,71 +1183,103 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>LUIZ FERNANDO OLIVEIRA PRUDENTE</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="AA6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>PEDRO LUCCA BARBOSA RAMOS</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="AD6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>ANGEL SOPHIA GONCALVES COUTO</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="AG6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>EMANUEL SILVA VARELA</t>
+          <t>KEMILLY FERNANDES LIRA</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA- PEDIATRICO</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>HEITOR RAVI SILVERIO FELICIANO</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>MATIAS MEDEIROS ROSA</t>
+          <t>TAYLER MATHEUS FERREIRA DOS SANTOS</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>MICAELA CARDOSO DA SILVA NEVES</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>DAVI SALOMAO ROCHA GERALDO</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>ARTHUR EMANUEL DE OLIVEIRA LIMA</t>
+          <t>VICTOR HUGO DA SILVA DE SOUZA</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="R7" t="n">
@@ -1058,71 +1288,93 @@
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>CAIO BRAZ DOMINGOS MARTINS</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="AA7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>ANA DE OLIVEIRA NASCIMENTO</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="AD7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHRISTOPHER COSTA DAMASCENO</t>
+          <t>BERNARDO BARBOSA DE JESUS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CORRECAO DE HIPOSPADIA (1º TEMPO) - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>LORENZZO DOS SANTOS BRUZAO</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>PABLO MIGUEL ALVES MOREIRA</t>
+          <t>ANNA CLARA DOS SANTOS GONCALVES</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>MALU GURGEL MARTINS</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>DANIEL SALOMAO ROCHA GERALDO</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>GUILHERME ALMEIDA TIBURCIO</t>
+          <t>MARINA LUISA SOARES AZEVEDO</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="R8" t="n">
@@ -1131,16 +1383,38 @@
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>BENTO SOUZA PEREIRA</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="AD8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DIEGO LUCAS DA SILVA</t>
+          <t>BERNARDO BARBOSA DE JESUS</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -1151,51 +1425,31 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>LUIS GUILHERME FREITAS MELLO</t>
+          <t>EDUARDA CABRAL DOS SANTOS</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>CRISTIANI ROCHA DOS SANTOS GONCALVES NASCIMENTO</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>PEDRO MYGUEL VIEIRA DE SOUZA</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>LUIZ MATHEUS FERREIRA DOS SANTOS</t>
+          <t>MARINA LUISA SOARES AZEVEDO</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
         </is>
       </c>
       <c r="R9" t="n">
@@ -1204,16 +1458,28 @@
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DAVI CRISTIAN LIMA DA CRUZ</t>
+          <t>ESTELA SILVA DA COSTA</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -1224,41 +1490,31 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>PABLO MIGUEL ALVES MOREIRA</t>
+          <t>EDUARDA CABRAL DOS SANTOS</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>JOHN RICHARD SILVA MENDES</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>LUIZ MATHEUS FERREIRA DOS SANTOS</t>
+          <t>LAVINIA MACEDO DE OLIVEIRA</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="R10" t="n">
@@ -1267,16 +1523,28 @@
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DIEGO LUCAS DA SILVA</t>
+          <t>ESTELA SILVA DA COSTA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1287,41 +1555,31 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>LUIS GUILHERME FREITAS MELLO</t>
+          <t>HECTOR FIGUEIREDO ALT</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>CORRECAO DE HIPOSPADIA (1º TEMPO) - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>PEDRO HENRIQUE MENDES MATHIAS</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>GUILHERME ALMEIDA TIBURCIO</t>
+          <t>LAVINIA MACEDO DE OLIVEIRA</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="R11" t="n">
@@ -1330,16 +1588,28 @@
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>EMANUEL SILVA VARELA</t>
+          <t>MARIA JULIA MACEDO DOS SANTOS</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1350,102 +1620,96 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>LUIS GUILHERME FREITAS MELLO</t>
+          <t>CLARICE GUIMARAES KIFFER DE OLIVEIRA</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>MALU GURGEL MARTINS</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>IAN SOUZA DO NASCIMENTO</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="R12" t="n">
-        <v>1</v>
-      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MARIA JULIA MACEDO DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>PABLO MIGUEL ALVES MOREIRA</t>
+          <t>HECTOR FIGUEIREDO ALT</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>JOHN RICHARD SILVA MENDES</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>ARTHUR EMANUEL DE OLIVEIRA LIMA</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="R13" t="n">
-        <v>1</v>
-      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
@@ -1454,41 +1718,43 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>MIRELLA SOPHIA LOPES LIRA</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>ISAQUE GADIEL FERREIRA BARBOSA COSTA</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>GUILHERME ALMEIDA TIBURCIO</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="R14" t="n">
-        <v>1</v>
-      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
@@ -1497,22 +1763,22 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>HELOISA LOPES DA COSTA</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>JOAO PEDRO ESPIRITO SANTO DA ROCHA</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1522,6 +1788,18 @@
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
@@ -1530,22 +1808,22 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>MICAELA CARDOSO DA SILVA NEVES</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>RAFAELLA MARIA FRAGOSO FONTES DA SILVA MARTINS</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1555,6 +1833,18 @@
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
@@ -1563,22 +1853,22 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>VALENTINA MOREIRA DA SILVA</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>ANNA CLARA DOS SANTOS GONCALVES</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1588,501 +1878,18 @@
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>ARTHUR SANTOS MOLINA</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>CRISTIANI ROCHA DOS SANTOS GONCALVES NASCIMENTO</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>NOAH GABRIEL DOS SANTOS BARBOSA</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>VALENTINA MOREIRA DA SILVA</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>NOAH GABRIEL DOS SANTOS BARBOSA</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>LORENZO BATISTA GOMES</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>LORENZO DOMINGOS FERREIRA DE OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>GABRIEL SILVA DE SOUZA</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>MANUELLA MENDES MARCAL</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>GABRIEL SILVA DE SOUZA</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>LORENZO BATISTA GOMES</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>LORENZO DOMINGOS FERREIRA DE OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>GABRIEL SILVA DE SOUZA</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>MANUELLA MENDES MARCAL</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>LORENZO BATISTA GOMES</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2095,7 +1902,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2163,27 +1970,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Duque de Caxias</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01/12/2025 11:00</t>
+          <t>30/11/2025 08:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CHRISTOPHER COSTA DAMASCENO</t>
+          <t>NATHAN BAPTISTA DA SILVA ALVES</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>07/07/2016</t>
+          <t>12/04/2022</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -2191,7 +1998,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -2206,39 +2013,39 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Duque de Caxias</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>01/12/2025 11:00</t>
+          <t>30/11/2025 08:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DAVI CRISTIAN LIMA DA CRUZ</t>
+          <t>GIOVANNA VITORIA SILVA LUCIANO</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>28/07/2012</t>
+          <t>19/02/2019</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -2246,7 +2053,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -2261,39 +2068,39 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Duque de Caxias</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>01/12/2025 11:00</t>
+          <t>06/12/2025 08:00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DIEGO LUCAS DA SILVA</t>
+          <t>MARIANA VIEIRA SOUZA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>01/12/2018</t>
+          <t>18/03/2019</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>AMIGDALECTOMIA- PEDIATRICO</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -2301,7 +2108,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 5.640,01</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -2316,39 +2123,39 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.073,00</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 6.713,01</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Duque de Caxias</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>01/12/2025 11:00</t>
+          <t>06/12/2025 08:00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EMANUEL SILVA VARELA</t>
+          <t>ALICE VIEIRA SOUZA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>28/10/2019</t>
+          <t>18/03/2019</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>AMIGDALECTOMIA- PEDIATRICO</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -2356,7 +2163,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 5.640,01</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -2371,39 +2178,39 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.073,00</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 6.713,01</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Duque de Caxias</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>05/12/2025 07:00</t>
+          <t>24/11/2025 13:00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CHRISTOPHER COSTA DAMASCENO</t>
+          <t>KEMILLY FERNANDES LIRA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>07/07/2016</t>
+          <t>01/05/2019</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -2411,7 +2218,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2426,39 +2233,39 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Duque de Caxias</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>05/12/2025 07:00</t>
+          <t>30/11/2025 08:00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EMANUEL SILVA VARELA</t>
+          <t>KEMILLY FERNANDES LIRA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>28/10/2019</t>
+          <t>01/05/2019</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA- PEDIATRICO</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -2466,7 +2273,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>R$ 5.239,94</t>
+          <t>R$ 5.640,01</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2481,39 +2288,39 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>R$ 610,06</t>
+          <t>R$ 1.073,00</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>R$ 5.850,00</t>
+          <t>R$ 6.713,01</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Duque de Caxias</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>05/12/2025 07:00</t>
+          <t>24/11/2025 15:00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CHRISTOPHER COSTA DAMASCENO</t>
+          <t>BERNARDO BARBOSA DE JESUS</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>07/07/2016</t>
+          <t>16/11/2014</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CORRECAO DE HIPOSPADIA (1º TEMPO) - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -2521,7 +2328,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>R$ 6.235,90</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -2536,39 +2343,39 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>R$ 372,96</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>R$ 6.608,86</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Duque de Caxias</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>05/12/2025 07:00</t>
+          <t>03/12/2025 08:00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DIEGO LUCAS DA SILVA</t>
+          <t>BERNARDO BARBOSA DE JESUS</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>01/12/2018</t>
+          <t>16/11/2014</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -2576,7 +2383,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -2591,39 +2398,39 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Duque de Caxias</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>05/12/2025 07:00</t>
+          <t>24/11/2025 15:00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DAVI CRISTIAN LIMA DA CRUZ</t>
+          <t>ESTELA SILVA DA COSTA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>28/07/2012</t>
+          <t>27/02/2022</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -2631,7 +2438,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2646,39 +2453,39 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Duque de Caxias</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>05/12/2025 07:00</t>
+          <t>30/11/2025 08:00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DIEGO LUCAS DA SILVA</t>
+          <t>ESTELA SILVA DA COSTA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>01/12/2018</t>
+          <t>27/02/2022</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -2686,7 +2493,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2701,39 +2508,39 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Duque de Caxias</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>05/12/2025 07:00</t>
+          <t>24/11/2025 15:00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>EMANUEL SILVA VARELA</t>
+          <t>MARIA JULIA MACEDO DOS SANTOS</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>28/10/2019</t>
+          <t>02/09/2020</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -2741,7 +2548,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2756,39 +2563,39 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>RJ - Magé</t>
+          <t>RJ - Duque de Caxias</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>08/12/2025 11:00</t>
+          <t>30/11/2025 08:00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>GUILHERME FERREIRA DA COSTA</t>
+          <t>MARIA JULIA MACEDO DOS SANTOS</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>11/04/2020</t>
+          <t>02/09/2020</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -2796,7 +2603,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2811,39 +2618,39 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>RJ - Magé</t>
+          <t>RJ - Paracambi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>12/12/2025 07:00</t>
+          <t>30/11/2025 08:00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>GUILHERME FERREIRA DA COSTA</t>
+          <t>JOAO ISAC PITZR FERREIRA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>11/04/2020</t>
+          <t>25/07/2017</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -2851,7 +2658,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2866,39 +2673,39 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RJ - Magé</t>
+          <t>RJ - Paracambi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>12/12/2025 07:00</t>
+          <t>24/11/2025 15:00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>GUILHERME FERREIRA DA COSTA</t>
+          <t>BERNARDO FLORES DA CUNHA DE MORAES</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>11/04/2020</t>
+          <t>30/03/2020</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -2906,7 +2713,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2921,39 +2728,39 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>RJ - Magé</t>
+          <t>RJ - Paracambi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>12/12/2025 11:00</t>
+          <t>30/11/2025 08:00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>GUILHERME FERREIRA DA COSTA</t>
+          <t>BERNARDO FLORES DA CUNHA DE MORAES</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>11/04/2020</t>
+          <t>30/03/2020</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -2961,7 +2768,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>R$ 5.239,94</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -2976,39 +2783,39 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>R$ 610,06</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>R$ 5.850,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Paracambi</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>01/12/2025 11:00</t>
+          <t>08/12/2025 15:00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>LORENA TEIXEIRA ROMEU DIAS</t>
+          <t>HEITOR RAVI SILVERIO FELICIANO</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>12/07/2021</t>
+          <t>15/05/2020</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -3043,27 +2850,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Paracambi</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>01/12/2025 11:00</t>
+          <t>08/12/2025 15:00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>MATIAS MEDEIROS ROSA</t>
+          <t>LORENZZO DOS SANTOS BRUZAO</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>18/11/2017</t>
+          <t>25/04/2017</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -3098,27 +2905,27 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Paracambi</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>06/12/2025 07:00</t>
+          <t>13/12/2025 09:00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MATIAS MEDEIROS ROSA</t>
+          <t>HEITOR RAVI SILVERIO FELICIANO</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>18/11/2017</t>
+          <t>15/05/2020</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -3126,7 +2933,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>R$ 5.239,94</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -3141,39 +2948,39 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>R$ 610,06</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>R$ 5.850,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Paracambi</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>06/12/2025 07:00</t>
+          <t>13/12/2025 09:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>LORENA TEIXEIRA ROMEU DIAS</t>
+          <t>LORENZZO DOS SANTOS BRUZAO</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>12/07/2021</t>
+          <t>25/04/2017</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -3181,7 +2988,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>R$ 5.239,94</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -3196,39 +3003,39 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>R$ 610,06</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>R$ 5.850,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>06/12/2025 07:00</t>
+          <t>24/11/2025 13:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>MATIAS MEDEIROS ROSA</t>
+          <t>CLARICE GUIMARAES KIFFER DE OLIVEIRA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>18/11/2017</t>
+          <t>12/08/2015</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -3236,7 +3043,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -3251,39 +3058,39 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>06/12/2025 07:00</t>
+          <t>24/11/2025 13:00</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>MATIAS MEDEIROS ROSA</t>
+          <t>JOAO PEDRO ESPIRITO SANTO DA ROCHA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>18/11/2017</t>
+          <t>11/03/2017</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -3291,7 +3098,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -3306,39 +3113,39 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>08/12/2025 11:00</t>
+          <t>24/11/2025 13:00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PABLO MIGUEL ALVES MOREIRA</t>
+          <t>RAFAELLA MARIA FRAGOSO FONTES DA SILVA MARTINS</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>29/08/2023</t>
+          <t>31/07/2022</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -3373,27 +3180,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>08/12/2025 11:00</t>
+          <t>24/11/2025 13:00</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>LUIS GUILHERME FREITAS MELLO</t>
+          <t>ISAQUE GADIEL FERREIRA BARBOSA COSTA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>15/03/2021</t>
+          <t>13/10/2019</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -3428,27 +3235,27 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>13/12/2025 07:00</t>
+          <t>24/11/2025 13:00</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PABLO MIGUEL ALVES MOREIRA</t>
+          <t>TAYLER MATHEUS FERREIRA DOS SANTOS</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>29/08/2023</t>
+          <t>01/05/2014</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -3456,7 +3263,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>R$ 6.772,46</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -3471,39 +3278,39 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>R$ 385,32</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>R$ 7.157,78</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>13/12/2025 07:00</t>
+          <t>07/12/2025 11:00</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>LUIS GUILHERME FREITAS MELLO</t>
+          <t>TAYLER MATHEUS FERREIRA DOS SANTOS</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>15/03/2021</t>
+          <t>01/05/2014</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>CORRECAO DE HIPOSPADIA (1º TEMPO) - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -3511,7 +3318,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>R$ 6.235,90</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -3526,39 +3333,39 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>R$ 372,96</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>R$ 6.608,86</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>13/12/2025 07:00</t>
+          <t>24/11/2025 13:00</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>LUIS GUILHERME FREITAS MELLO</t>
+          <t>ANNA CLARA DOS SANTOS GONCALVES</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>15/03/2021</t>
+          <t>27/04/2015</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -3566,7 +3373,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>R$ 5.239,94</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -3581,39 +3388,39 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>R$ 610,06</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>R$ 5.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>13/12/2025 07:00</t>
+          <t>24/11/2025 13:00</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PABLO MIGUEL ALVES MOREIRA</t>
+          <t>EDUARDA CABRAL DOS SANTOS</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>29/08/2023</t>
+          <t>05/07/2018</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -3621,7 +3428,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>R$ 5.239,94</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -3636,39 +3443,39 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>R$ 610,06</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>R$ 5.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>01/12/2025 11:00</t>
+          <t>07/12/2025 11:00</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>HELOISA LOPES DA COSTA</t>
+          <t>EDUARDA CABRAL DOS SANTOS</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>03/01/2022</t>
+          <t>05/07/2018</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -3676,7 +3483,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -3691,34 +3498,34 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>01/12/2025 11:00</t>
+          <t>25/11/2025 16:00</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NOAH GABRIEL DOS SANTOS BARBOSA</t>
+          <t>HECTOR FIGUEIREDO ALT</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>12/05/2022</t>
+          <t>16/08/2017</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -3758,27 +3565,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>01/12/2025 11:00</t>
+          <t>06/12/2025 11:00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MIRELLA SOPHIA LOPES LIRA</t>
+          <t>CLARICE GUIMARAES KIFFER DE OLIVEIRA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>21/03/2018</t>
+          <t>12/08/2015</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -3786,7 +3593,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -3801,39 +3608,39 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>01/12/2025 11:00</t>
+          <t>13/12/2025 12:00</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ARTHUR SANTOS MOLINA</t>
+          <t>HECTOR FIGUEIREDO ALT</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>29/10/2017</t>
+          <t>16/08/2017</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -3841,7 +3648,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -3856,39 +3663,39 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>01/12/2025 11:00</t>
+          <t>07/12/2025 11:00</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>VALENTINA MOREIRA DA SILVA</t>
+          <t>ISAQUE GADIEL FERREIRA BARBOSA COSTA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>19/12/2018</t>
+          <t>13/10/2019</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -3896,7 +3703,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -3911,39 +3718,39 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>01/12/2025 11:00</t>
+          <t>07/12/2025 11:00</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MICAELA CARDOSO DA SILVA NEVES</t>
+          <t>JOAO PEDRO ESPIRITO SANTO DA ROCHA</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>03/10/2013</t>
+          <t>11/03/2017</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -3951,7 +3758,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.250,90</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -3966,39 +3773,39 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.079,10</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.330,00</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>01/12/2025 11:00</t>
+          <t>06/12/2025 11:00</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>MALU GURGEL MARTINS</t>
+          <t>RAFAELLA MARIA FRAGOSO FONTES DA SILVA MARTINS</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>25/02/2019</t>
+          <t>31/07/2022</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -4006,7 +3813,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -4021,39 +3828,39 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>01/12/2025 11:00</t>
+          <t>07/12/2025 11:00</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CRISTIANI ROCHA DOS SANTOS GONCALVES NASCIMENTO</t>
+          <t>ANNA CLARA DOS SANTOS GONCALVES</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>21/03/2022</t>
+          <t>27/04/2015</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -4061,7 +3868,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -4076,39 +3883,39 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Itaguaí</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>01/12/2025 11:00</t>
+          <t>24/11/2025 13:00</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>JOHN RICHARD SILVA MENDES</t>
+          <t>MIGUEL DA SILVA ALMEIDA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>07/07/2017</t>
+          <t>28/05/2016</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -4143,27 +3950,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Itaguaí</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>01/12/2025 11:00</t>
+          <t>06/12/2025 11:00</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>PEDRO HENRIQUE MENDES MATHIAS</t>
+          <t>MIGUEL DA SILVA ALMEIDA</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>15/07/2018</t>
+          <t>28/05/2016</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -4171,7 +3978,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -4186,39 +3993,39 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Belford Roxo</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>05/12/2025 07:00</t>
+          <t>24/11/2025 13:00</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>MALU GURGEL MARTINS</t>
+          <t>RICHARD SILVA DOS SANTOS AMANCIO</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>25/02/2019</t>
+          <t>14/01/2020</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -4226,7 +4033,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -4241,39 +4048,39 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Belford Roxo</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>05/12/2025 07:00</t>
+          <t>06/12/2025 11:00</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>JOHN RICHARD SILVA MENDES</t>
+          <t>RICHARD SILVA DOS SANTOS AMANCIO</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>07/07/2017</t>
+          <t>14/01/2020</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -4281,7 +4088,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -4296,39 +4103,39 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>05/12/2025 07:00</t>
+          <t>24/11/2025 15:00</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>MIRELLA SOPHIA LOPES LIRA</t>
+          <t>MALLU REIS NASCIMENTO</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>21/03/2018</t>
+          <t>22/03/2021</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -4336,7 +4143,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -4351,39 +4158,39 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>06/12/2025 07:00</t>
+          <t>06/12/2025 08:00</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>HELOISA LOPES DA COSTA</t>
+          <t>MALLU REIS NASCIMENTO</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>03/01/2022</t>
+          <t>22/03/2021</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -4391,7 +4198,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>R$ 5.239,94</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -4406,39 +4213,39 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>R$ 610,06</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>R$ 5.850,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>06/12/2025 07:00</t>
+          <t>24/11/2025 15:00</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>MICAELA CARDOSO DA SILVA NEVES</t>
+          <t>DOUGLAS MORAES DOS REIS</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>03/10/2013</t>
+          <t>11/06/2020</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -4446,7 +4253,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -4461,39 +4268,39 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>06/12/2025 07:00</t>
+          <t>06/12/2025 08:00</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>VALENTINA MOREIRA DA SILVA</t>
+          <t>DOUGLAS MORAES DOS REIS</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>19/12/2018</t>
+          <t>11/06/2020</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -4501,7 +4308,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>R$ 5.239,94</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -4516,39 +4323,39 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>R$ 610,06</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>R$ 5.850,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>06/12/2025 07:00</t>
+          <t>24/11/2025 15:00</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ARTHUR SANTOS MOLINA</t>
+          <t>VICTOR HUGO DA SILVA DE SOUZA</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>29/10/2017</t>
+          <t>13/07/2020</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -4556,7 +4363,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -4571,39 +4378,39 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>06/12/2025 07:00</t>
+          <t>06/12/2025 08:00</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CRISTIANI ROCHA DOS SANTOS GONCALVES NASCIMENTO</t>
+          <t>VICTOR HUGO DA SILVA DE SOUZA</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>21/03/2022</t>
+          <t>13/07/2020</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -4611,7 +4418,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>R$ 5.239,94</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -4626,39 +4433,39 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>R$ 610,06</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>R$ 5.850,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>06/12/2025 07:00</t>
+          <t>24/11/2025 15:00</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>NOAH GABRIEL DOS SANTOS BARBOSA</t>
+          <t>MARINA LUISA SOARES AZEVEDO</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>12/05/2022</t>
+          <t>10/03/2018</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -4666,7 +4473,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>R$ 5.239,94</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -4681,39 +4488,39 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>R$ 610,06</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>R$ 5.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>06/12/2025 07:00</t>
+          <t>06/12/2025 08:00</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>VALENTINA MOREIRA DA SILVA</t>
+          <t>MARINA LUISA SOARES AZEVEDO</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>19/12/2018</t>
+          <t>10/03/2018</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -4721,7 +4528,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 4.250,90</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -4736,39 +4543,39 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 1.079,10</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 5.330,00</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>06/12/2025 07:00</t>
+          <t>08/12/2025 15:00</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>NOAH GABRIEL DOS SANTOS BARBOSA</t>
+          <t>LAVINIA MACEDO DE OLIVEIRA</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>12/05/2022</t>
+          <t>10/02/2017</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -4776,7 +4583,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -4791,39 +4598,39 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>08/12/2025 11:00</t>
+          <t>13/12/2025 09:00</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>LORENZO BATISTA GOMES</t>
+          <t>LAVINIA MACEDO DE OLIVEIRA</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>01/05/2019</t>
+          <t>10/02/2017</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -4831,7 +4638,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -4846,39 +4653,39 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>08/12/2025 11:00</t>
+          <t>08/12/2025 08:00</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>LORENZO DOMINGOS FERREIRA DE OLIVEIRA</t>
+          <t>PEROLA HELENA LOPES RICARDO</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>16/09/2018</t>
+          <t>03/05/2022</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -4886,7 +4693,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.802,07</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -4901,34 +4708,34 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 434,99</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>08/12/2025 11:00</t>
+          <t>03/12/2025 09:00</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>GABRIEL SILVA DE SOUZA</t>
+          <t>JOAO PEDRO ZAMPIROLLI GAMA</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>26/06/2017</t>
+          <t>14/05/2019</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -4968,27 +4775,27 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>08/12/2025 11:00</t>
+          <t>06/12/2025 08:00</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>MANUELLA MENDES MARCAL</t>
+          <t>JOAO PEDRO ZAMPIROLLI GAMA</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>20/03/2019</t>
+          <t>14/05/2019</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -4996,7 +4803,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.802,07</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -5011,34 +4818,34 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 434,99</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>12/12/2025 07:00</t>
+          <t>06/12/2025 08:00</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>GABRIEL SILVA DE SOUZA</t>
+          <t>JOAO PEDRO ZAMPIROLLI GAMA</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>26/06/2017</t>
+          <t>14/05/2019</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -5078,22 +4885,22 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - São João de Meriti</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>12/12/2025 07:00</t>
+          <t>08/12/2025 08:00</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>LORENZO BATISTA GOMES</t>
+          <t>GAEL SANTOS VARGAS</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>01/05/2019</t>
+          <t>29/06/2023</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -5133,27 +4940,27 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - São João de Meriti</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>12/12/2025 07:00</t>
+          <t>08/12/2025 08:00</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>LORENZO DOMINGOS FERREIRA DE OLIVEIRA</t>
+          <t>GAEL SANTOS VARGAS</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>16/09/2018</t>
+          <t>29/06/2023</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -5161,7 +4968,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 6.772,46</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -5176,39 +4983,39 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 385,32</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 7.157,78</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>12/12/2025 07:00</t>
+          <t>01/12/2025 09:00</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>GABRIEL SILVA DE SOUZA</t>
+          <t>DAVI LUIZ DE ALMEIDA PEREIRA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>26/06/2017</t>
+          <t>23/04/2021</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -5216,7 +5023,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -5231,34 +5038,34 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>12/12/2025 07:00</t>
+          <t>08/12/2025 08:00</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>MANUELLA MENDES MARCAL</t>
+          <t>DAVI LUIZ DE ALMEIDA PEREIRA</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>20/03/2019</t>
+          <t>23/04/2021</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -5298,27 +5105,27 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>12/12/2025 07:00</t>
+          <t>08/12/2025 15:00</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>LORENZO BATISTA GOMES</t>
+          <t>CAIO BRAZ DOMINGOS MARTINS</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>01/05/2019</t>
+          <t>01/08/2018</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -5326,7 +5133,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>R$ 5.239,94</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -5341,39 +5148,39 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>R$ 610,06</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>R$ 5.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>24/11/2025 11:00</t>
+          <t>08/12/2025 15:00</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>VALENTIN DA SILVA RAFAEL</t>
+          <t>LUIZ FERNANDO OLIVEIRA PRUDENTE</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>23/03/2021</t>
+          <t>10/12/2015</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -5408,27 +5215,27 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>24/11/2025 11:00</t>
+          <t>13/12/2025 09:00</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>PEDRO MYGUEL VIEIRA DE SOUZA</t>
+          <t>LUIZ FERNANDO OLIVEIRA PRUDENTE</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>18/08/2014</t>
+          <t>10/12/2015</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -5436,7 +5243,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -5451,39 +5258,39 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>24/11/2025 11:00</t>
+          <t>13/12/2025 09:00</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>DANIEL SALOMAO ROCHA GERALDO</t>
+          <t>CAIO BRAZ DOMINGOS MARTINS</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>27/10/2019</t>
+          <t>01/08/2018</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -5491,7 +5298,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -5506,12 +5313,12 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
@@ -5523,17 +5330,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>24/11/2025 11:00</t>
+          <t>01/12/2025 09:00</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>DAVI SALOMAO ROCHA GERALDO</t>
+          <t>PIETRO COELHO DE AZEVEDO</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>27/10/2019</t>
+          <t>14/07/2019</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -5578,22 +5385,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>28/11/2025 07:00</t>
+          <t>01/12/2025 09:00</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>VALENTIN DA SILVA RAFAEL</t>
+          <t>BENTO SOUZA PEREIRA</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>23/03/2021</t>
+          <t>01/12/2021</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -5601,7 +5408,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -5616,12 +5423,12 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5440,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>28/11/2025 07:00</t>
+          <t>01/12/2025 09:00</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>DAVI SALOMAO ROCHA GERALDO</t>
+          <t>ARTHUR PINHEIRO RESSURREICAO</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>27/10/2019</t>
+          <t>18/09/2015</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -5656,7 +5463,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -5671,12 +5478,12 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
@@ -5688,22 +5495,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>28/11/2025 07:00</t>
+          <t>01/12/2025 09:00</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>DANIEL SALOMAO ROCHA GERALDO</t>
+          <t>ANA DE OLIVEIRA NASCIMENTO</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>27/10/2019</t>
+          <t>12/05/2021</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -5711,7 +5518,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -5726,12 +5533,12 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
@@ -5743,22 +5550,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>29/11/2025 07:00</t>
+          <t>03/12/2025 09:00</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>PEDRO MYGUEL VIEIRA DE SOUZA</t>
+          <t>PEDRO LUCCA BARBOSA RAMOS</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>18/08/2014</t>
+          <t>04/04/2022</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -5766,7 +5573,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -5781,39 +5588,39 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Queimados</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>24/11/2025 11:00</t>
+          <t>08/12/2025 08:00</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>MIGUEL LUIZ BASTOS ROCHA DA SILVA</t>
+          <t>ANA DE OLIVEIRA NASCIMENTO</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>28/04/2020</t>
+          <t>12/05/2021</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -5821,7 +5628,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 5.239,94</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -5836,39 +5643,39 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 610,06</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.850,00</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Queimados</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>24/11/2025 11:00</t>
+          <t>08/12/2025 08:00</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>JOSE ANTONIO LOMAR RIBEIRO</t>
+          <t>BENTO SOUZA PEREIRA</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>23/04/2021</t>
+          <t>01/12/2021</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -5876,7 +5683,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -5891,39 +5698,39 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>28/11/2025 07:00</t>
+          <t>03/12/2025 09:00</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>JOSE ANTONIO LOMAR RIBEIRO</t>
+          <t>ISADORA SANTOS DE SOUSA</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>23/04/2021</t>
+          <t>07/05/2019</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -5931,7 +5738,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -5946,34 +5753,34 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>08/12/2025 11:00</t>
+          <t>03/12/2025 09:00</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>LUIZ MATHEUS FERREIRA DOS SANTOS</t>
+          <t>KEROLLAYNE VITORIA DA COSTA SILVA</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>31/01/2014</t>
+          <t>12/12/2014</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -6013,27 +5820,27 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>08/12/2025 11:00</t>
+          <t>06/12/2025 08:00</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>IAN SOUZA DO NASCIMENTO</t>
+          <t>ISADORA SANTOS DE SOUSA</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>13/10/2015</t>
+          <t>07/05/2019</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -6041,7 +5848,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.802,07</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -6056,34 +5863,34 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 434,99</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>08/12/2025 11:00</t>
+          <t>03/12/2025 09:00</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>ARTHUR EMANUEL DE OLIVEIRA LIMA</t>
+          <t>ANGEL SOPHIA GONCALVES COUTO</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>25/02/2022</t>
+          <t>11/07/2021</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -6123,27 +5930,27 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>08/12/2025 11:00</t>
+          <t>06/12/2025 08:00</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>GUILHERME ALMEIDA TIBURCIO</t>
+          <t>ANGEL SOPHIA GONCALVES COUTO</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>04/09/2021</t>
+          <t>11/07/2021</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -6151,7 +5958,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 5.239,94</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -6166,560 +5973,10 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 610,06</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>RJ - São João de Meriti</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>12/12/2025 07:00</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>LUIZ MATHEUS FERREIRA DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>31/01/2014</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F75" t="n">
-        <v>1</v>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>R$ 4.630,88</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>R$ 219,12</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>R$ 4.850,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>RJ - São João de Meriti</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>12/12/2025 07:00</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>LUIZ MATHEUS FERREIRA DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>31/01/2014</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F76" t="n">
-        <v>1</v>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>R$ 4.802,07</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>R$ 434,99</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>R$ 5.237,06</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>RJ - São João de Meriti</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>13/12/2025 07:00</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>GUILHERME ALMEIDA TIBURCIO</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>04/09/2021</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F77" t="n">
-        <v>1</v>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>R$ 4.802,07</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>R$ 434,99</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>R$ 5.237,06</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>RJ - São João de Meriti</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>13/12/2025 07:00</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>IAN SOUZA DO NASCIMENTO</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>13/10/2015</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F78" t="n">
-        <v>1</v>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>R$ 4.630,88</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>R$ 219,12</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>R$ 4.850,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>RJ - São João de Meriti</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>13/12/2025 07:00</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>ARTHUR EMANUEL DE OLIVEIRA LIMA</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>25/02/2022</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F79" t="n">
-        <v>1</v>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>R$ 4.630,88</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>R$ 219,12</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>R$ 4.850,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>RJ - São João de Meriti</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>13/12/2025 07:00</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>GUILHERME ALMEIDA TIBURCIO</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>04/09/2021</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F80" t="n">
-        <v>1</v>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>R$ 4.630,88</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>R$ 219,12</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>R$ 4.850,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>RJ - Seropédica</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>24/11/2025 11:00</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>NATHALIA DOS SANTOS PEREIRA</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>02/05/2019</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="F81" t="n">
-        <v>1</v>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>RJ - Seropédica</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>24/11/2025 11:00</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>HELENA ROCHA DA SILVA BRAGA</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>25/01/2024</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="F82" t="n">
-        <v>1</v>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>RJ - Seropédica</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>28/11/2025 07:00</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>NATHALIA DOS SANTOS PEREIRA</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>02/05/2019</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F83" t="n">
-        <v>1</v>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>R$ 5.239,94</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>R$ 610,06</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>R$ 5.850,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>RJ - Seropédica</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>28/11/2025 07:00</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>HELENA ROCHA DA SILVA BRAGA</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>25/01/2024</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F84" t="n">
-        <v>1</v>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>R$ 5.239,94</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>R$ 610,06</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
         <is>
           <t>R$ 5.850,00</t>
         </is>

--- a/relatorios_simplificados/separarNeomater_SIMPLIFICADO.xlsx
+++ b/relatorios_simplificados/separarNeomater_SIMPLIFICADO.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X27"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,129 +437,114 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Paciente RJ - Japeri</t>
+          <t>Paciente RJ - São João de Meriti</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>RJ - Japeri</t>
+          <t>RJ - São João de Meriti</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Quantidade RJ - Japeri</t>
+          <t>Quantidade RJ - São João de Meriti</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Paciente RJ - Seropédica</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>RJ - Seropédica</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Quantidade RJ - Seropédica</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Paciente RJ - Queimados</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>RJ - Queimados</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Quantidade RJ - Queimados</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Paciente RJ - Mesquita</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>RJ - Mesquita</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Quantidade RJ - Mesquita</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Paciente RJ - Nova Iguaçu</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Quantidade RJ - Nova Iguaçu</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Paciente RJ - Seropédica</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>RJ - Seropédica</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Quantidade RJ - Seropédica</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Paciente RJ - Belford Roxo</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>RJ - Belford Roxo</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Quantidade RJ - Belford Roxo</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Paciente RJ - Queimados</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>RJ - Queimados</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Quantidade RJ - Queimados</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Paciente RJ - Mesquita</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>RJ - Mesquita</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Quantidade RJ - Mesquita</t>
-        </is>
-      </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Paciente RJ - Itaguaí</t>
+          <t>Paciente RJ - Magé</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>RJ - Itaguaí</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Quantidade RJ - Itaguaí</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Paciente RJ - São João de Meriti</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>RJ - São João de Meriti</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Quantidade RJ - São João de Meriti</t>
+          <t>Quantidade RJ - Magé</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MARIA EDUARDA DOS SANTOS SILVA</t>
+          <t>JOSE ANTONIO LOMAR RIBEIRO</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -572,7 +557,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DAVI CORTEIS TEOFILO SOARES</t>
+          <t>HELENA ROCHA DA SILVA BRAGA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -585,7 +570,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>samuel da silva pessoa</t>
+          <t>VALENTIN DA SILVA RAFAEL</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -598,7 +583,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>JOAO RICARDO FERNANDES JOAQUIM DE ALMEIDA</t>
+          <t>MATIAS MEDEIROS ROSA</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -611,7 +596,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>PEDRO LUCAS RIBEIRO JULIAO DE SOUZA</t>
+          <t>MALU GURGEL MARTINS</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -624,12 +609,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>GAEL ARAUJO DOS SANTOS</t>
+          <t>EMANUEL SILVA VARELA</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -637,35 +622,22 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>KAIQUE DE SA GONCALVES</t>
+          <t>GUILHERME FERREIRA DA COSTA</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>HENRY DE SOUZA MARIA DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="X2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>YURI MARTINS DE AZEVEDO</t>
+          <t>MIGUEL LUIZ BASTOS ROCHA DA SILVA</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -678,7 +650,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>KAIQUE ANTUNES MARQUES</t>
+          <t>NATHALIA DOS SANTOS PEREIRA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -691,12 +663,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>samuel da silva pessoa</t>
+          <t>DAVI SALOMAO ROCHA GERALDO</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -704,7 +676,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>MARLON MIGUEL MOREIRA SANTOS DA SILVA</t>
+          <t>LORENA TEIXEIRA ROMEU DIAS</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -717,162 +689,146 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>PEDRO LUCAS RIBEIRO JULIAO DE SOUZA</t>
+          <t>NOAH GABRIEL DOS SANTOS BARBOSA</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>DIEGO LUCAS DA SILVA</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>GUILHERME FERREIRA DA COSTA</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
           <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>PIETRO DANIEL SANTOS MACHADO</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="R3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>KAIQUE DE SA GONCALVES</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
       <c r="U3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>HENRY DE SOUZA MARIA DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="X3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MARIA EDUARDA DOS SANTOS SILVA</t>
+          <t>JOSE ANTONIO LOMAR RIBEIRO</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NATHALIA DOS SANTOS PEREIRA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>DANIEL SALOMAO ROCHA GERALDO</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>LORENA TEIXEIRA ROMEU DIAS</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>MIRELLA SOPHIA LOPES LIRA</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>DAVI CRISTIAN LIMA DA CRUZ</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>GUILHERME FERREIRA DA COSTA</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
           <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>RAFAELLA VENTURA DE SALES</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>GABRYELLA MARTINS DA SILVA</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>HEITOR LUCAS ALMEIDA</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>GUILHERME ROMAO DA SILVA</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="R4" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>KAIQUE DE SA GONCALVES</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
       <c r="U4" t="n">
-        <v>1</v>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>DAVI HENRIQUE DE ASSIS DO ROZARIO</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="X4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>YURI MARTINS DE AZEVEDO</t>
+          <t>LUIZ MATHEUS FERREIRA DOS SANTOS</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -880,12 +836,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LUAN VITOR MAGALHAES OLIVEIRA</t>
+          <t>HELENA ROCHA DA SILVA BRAGA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -893,7 +849,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>RIQUELME TAVARES ALMEIDA</t>
+          <t>PEDRO MYGUEL VIEIRA DE SOUZA</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -906,114 +862,121 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>JOAO RICARDO FERNANDES JOAQUIM DE ALMEIDA</t>
+          <t>MATIAS MEDEIROS ROSA</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>MICAELA CARDOSO DA SILVA NEVES</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>JOAO ARTHUR FERNANDES DE VASCONCELOS</t>
+          <t>CHRISTOPHER COSTA DAMASCENO</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="R5" t="n">
         <v>1</v>
       </c>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>HUGO LUIS FRANCELINO MANILHA</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="X5" t="n">
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>GUILHERME FERREIRA DA COSTA</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="U5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>YURI MARTINS DE AZEVEDO</t>
+          <t>IAN SOUZA DO NASCIMENTO</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>VALENTIN DA SILVA RAFAEL</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>LUISA DE SOUZA FORTES</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>ENZO GABRIEL NASCIMENTO DE OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>MARLON MIGUEL MOREIRA SANTOS DA SILVA</t>
+          <t>LUIS GUILHERME FREITAS MELLO</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>CRISTIANI ROCHA DOS SANTOS GONCALVES NASCIMENTO</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>EMANUEL SILVA VARELA</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
           <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>ITALO SANTOS DE SAO JUSTO</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="R6" t="n">
@@ -1022,84 +985,71 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>LUIDY GABRIEL DE SOUZA EMIDIO</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="X6" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RIQUELME DA SILVA COSTA</t>
+          <t>ARTHUR EMANUEL DE OLIVEIRA LIMA</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>DAVI SALOMAO ROCHA GERALDO</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PABLO MIGUEL ALVES MOREIRA</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>JOHN RICHARD SILVA MENDES</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>DIEGO LUCAS DA SILVA</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
           <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>FABIO ALVES DE MIRANDA</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>GABRYELLA MARTINS DA SILVA</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>HEITOR LUCAS ALMEIDA</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>PEDRO PATRICK PONTES DE LIMA</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="R7" t="n">
@@ -1108,24 +1058,11 @@
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>DAVI HENRIQUE DE ASSIS DO ROZARIO</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="X7" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RIQUELME DA SILVA COSTA</t>
+          <t>GUILHERME ALMEIDA TIBURCIO</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1136,27 +1073,17 @@
       <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>OTHON ESTEVES LEMOS</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>RIQUELME TAVARES ALMEIDA</t>
+          <t>DANIEL SALOMAO ROCHA GERALDO</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -1164,28 +1091,38 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>LENDROLEO VINICIUS DOS SANTOS SILVA</t>
+          <t>PABLO MIGUEL ALVES MOREIRA</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>PEDRO HENRIQUE MENDES MATHIAS</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>ITALO SANTOS DE SAO JUSTO</t>
+          <t>DAVI CRISTIAN LIMA DA CRUZ</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="R8" t="n">
@@ -1194,55 +1131,32 @@
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>HUGO LUIS FRANCELINO MANILHA</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="X8" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BERNARDO DE PAULA MINEIRO SANTOS</t>
+          <t>LUIZ MATHEUS FERREIRA DOS SANTOS</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>JASMYNE DE SOUZA BARRETO</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>ENZO GABRIEL NASCIMENTO DE OLIVEIRA</t>
+          <t>PEDRO MYGUEL VIEIRA DE SOUZA</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1250,28 +1164,38 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>THIAGO BATISTA DOS SANTOS</t>
+          <t>LUIS GUILHERME FREITAS MELLO</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>HELOISA LOPES DA COSTA</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>GUILHERME ROMAO DA SILVA</t>
+          <t>CHRISTOPHER COSTA DAMASCENO</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="R9" t="n">
@@ -1280,84 +1204,61 @@
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>LUIDY GABRIEL DE SOUZA EMIDIO</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="X9" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BERNARDO DE PAULA MINEIRO SANTOS</t>
+          <t>GUILHERME ALMEIDA TIBURCIO</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>MATIAS MEDEIROS ROSA</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>OTHON ESTEVES LEMOS</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>GABRYELLA MARTINS DA SILVA</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>THIAGO BATISTA DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>VALENTINA MOREIRA DA SILVA</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>GAEL ARAUJO DOS SANTOS</t>
+          <t>DIEGO LUCAS DA SILVA</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="R10" t="n">
@@ -1366,24 +1267,11 @@
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>HUGO LUIS FRANCELINO MANILHA</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>CORRECAO DE HIPOSPADIA (1º TEMPO) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="X10" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RIQUELME DA SILVA COSTA</t>
+          <t>ARTHUR EMANUEL DE OLIVEIRA LIMA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1394,56 +1282,46 @@
       <c r="C11" t="n">
         <v>1</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>DAVI CORTEIS TEOFILO SOARES</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>MATIAS MEDEIROS ROSA</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>RIQUELME TAVARES ALMEIDA</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>LENDROLEO VINICIUS DOS SANTOS SILVA</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>ARTHUR SANTOS MOLINA</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>PIETRO DANIEL SANTOS MACHADO</t>
+          <t>CHRISTOPHER COSTA DAMASCENO</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>CORRECAO DE HIPOSPADIA (1º TEMPO) - PEDIATRICO</t>
         </is>
       </c>
       <c r="R11" t="n">
@@ -1452,64 +1330,61 @@
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RIQUELME DA SILVA COSTA</t>
+          <t>IAN SOUZA DO NASCIMENTO</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>KAIQUE ANTUNES MARQUES</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>ALLANA SAMARA BARRETO ALVES DA SILVA</t>
+          <t>LUIS GUILHERME FREITAS MELLO</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>CORRECAO DE HIPOSPADIA (1º TEMPO) - PEDIATRICO</t>
         </is>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>MIRELLA SOPHIA LOPES LIRA</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>PEDRO PATRICK PONTES DE LIMA</t>
+          <t>EMANUEL SILVA VARELA</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="R12" t="n">
@@ -1518,467 +1393,300 @@
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BERNARDO DE PAULA MINEIRO SANTOS</t>
+          <t>GUILHERME ALMEIDA TIBURCIO</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>RAFAELLA VENTURA DE SALES</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>ISADORA MACHADO MACEDO</t>
+          <t>PABLO MIGUEL ALVES MOREIRA</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>JOAO ARTHUR FERNANDES DE VASCONCELOS</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="R13" t="n">
-        <v>1</v>
-      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>JOHN RICHARD SILVA MENDES</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>LUAN VITOR MAGALHAES OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>LUIZ MATHEUS FERREIRA DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>JOHN LUCCA DIAS GUILHERME</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>NICOLLAS SOUZA DE JESUS</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="R14" t="n">
-        <v>1</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>MALU GURGEL MARTINS</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>JASMYNE DE SOUZA BARRETO</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>ANNA MIRELLA DA SILVA GRILLO</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>BRAYAN BAPTISTA EDMUNDO</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="R15" t="n">
-        <v>1</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>CRISTIANI ROCHA DOS SANTOS GONCALVES NASCIMENTO</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>LUISA DE SOUZA FORTES</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>ALLANA SAMARA BARRETO ALVES DA SILVA</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>NICOLLAS SOUZA DE JESUS</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="R16" t="n">
-        <v>1</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>MICAELA CARDOSO DA SILVA NEVES</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>FABIO ALVES DE MIRANDA</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>ISADORA MACHADO MACEDO</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>BRAYAN BAPTISTA EDMUNDO</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="R17" t="n">
-        <v>1</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>VALENTINA MOREIRA DA SILVA</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>OTHON ESTEVES LEMOS</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
-      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>JOHN LUCCA DIAS GUILHERME</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>ARTHUR SANTOS MOLINA</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>GUILHERME ROMAO DA SILVA</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="R18" t="n">
-        <v>1</v>
-      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>FABIO ALVES DE MIRANDA</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>ANNA MIRELLA DA SILVA GRILLO</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>GUILHERME ROMAO DA SILVA</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="R19" t="n">
-        <v>1</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>HELOISA LOPES DA COSTA</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>OTHON ESTEVES LEMOS</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>JOAO RICARDO FERNANDES JOAQUIM DE ALMEIDA</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>GAEL ARAUJO DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="R20" t="n">
-        <v>1</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NOAH GABRIEL DOS SANTOS BARBOSA</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
@@ -1990,41 +1698,28 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>HEITOR LUCAS ALMEIDA</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>PIETRO DANIEL SANTOS MACHADO</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="R21" t="n">
-        <v>1</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>LORENZO BATISTA GOMES</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
@@ -2036,31 +1731,28 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>HEITOR LUCAS ALMEIDA</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>LORENZO DOMINGOS FERREIRA DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
@@ -2072,31 +1764,28 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>HEITOR LUCAS ALMEIDA</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>GABRIEL SILVA DE SOUZA</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="O23" t="n">
+        <v>1</v>
+      </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
@@ -2108,31 +1797,28 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>MARLON MIGUEL MOREIRA SANTOS DA SILVA</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>MANUELLA MENDES MARCAL</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="O24" t="n">
+        <v>1</v>
+      </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
@@ -2144,31 +1830,28 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>MARLON MIGUEL MOREIRA SANTOS DA SILVA</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>GABRIEL SILVA DE SOUZA</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="O25" t="n">
+        <v>1</v>
+      </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
@@ -2180,31 +1863,28 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>ALLANA SAMARA BARRETO ALVES DA SILVA</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>MANUELLA MENDES MARCAL</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
+      <c r="O26" t="n">
+        <v>1</v>
+      </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
@@ -2216,31 +1896,193 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>LENDROLEO VINICIUS DOS SANTOS SILVA</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>LORENZO DOMINGOS FERREIRA DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="O27" t="n">
+        <v>1</v>
+      </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>LORENZO BATISTA GOMES</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="O28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>VALENTINA MOREIRA DA SILVA</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="O29" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>NOAH GABRIEL DOS SANTOS BARBOSA</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="O30" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>LORENZO BATISTA GOMES</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="O31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>GABRIEL SILVA DE SOUZA</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="O32" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2253,7 +2095,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K102"/>
+  <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,22 +2163,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RJ - Japeri</t>
+          <t>RJ - São João de Meriti</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20/10/2025 11:00</t>
+          <t>24/11/2025 11:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MARIA EDUARDA DOS SANTOS SILVA</t>
+          <t>JOSE ANTONIO LOMAR RIBEIRO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13/03/2019</t>
+          <t>23/04/2021</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -2376,22 +2218,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RJ - Japeri</t>
+          <t>RJ - São João de Meriti</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>20/10/2025 11:00</t>
+          <t>24/11/2025 11:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>YURI MARTINS DE AZEVEDO</t>
+          <t>MIGUEL LUIZ BASTOS ROCHA DA SILVA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18/01/2016</t>
+          <t>28/04/2020</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -2431,27 +2273,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RJ - Japeri</t>
+          <t>RJ - São João de Meriti</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>25/10/2025 07:00</t>
+          <t>28/11/2025 07:00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MARIA EDUARDA DOS SANTOS SILVA</t>
+          <t>JOSE ANTONIO LOMAR RIBEIRO</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13/03/2019</t>
+          <t>23/04/2021</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -2459,7 +2301,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -2474,39 +2316,39 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RJ - Japeri</t>
+          <t>RJ - São João de Meriti</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>25/10/2025 07:00</t>
+          <t>08/12/2025 11:00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>YURI MARTINS DE AZEVEDO</t>
+          <t>LUIZ MATHEUS FERREIRA DOS SANTOS</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>18/01/2016</t>
+          <t>31/01/2014</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -2514,7 +2356,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -2529,39 +2371,39 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RJ - Japeri</t>
+          <t>RJ - São João de Meriti</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>25/10/2025 07:00</t>
+          <t>08/12/2025 11:00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>YURI MARTINS DE AZEVEDO</t>
+          <t>IAN SOUZA DO NASCIMENTO</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>18/01/2016</t>
+          <t>13/10/2015</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -2569,7 +2411,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2584,39 +2426,39 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RJ - Japeri</t>
+          <t>RJ - São João de Meriti</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>08/11/2025 07:00</t>
+          <t>08/12/2025 11:00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>RIQUELME DA SILVA COSTA</t>
+          <t>ARTHUR EMANUEL DE OLIVEIRA LIMA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>06/08/2016</t>
+          <t>25/02/2022</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -2624,7 +2466,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2639,34 +2481,34 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RJ - Japeri</t>
+          <t>RJ - São João de Meriti</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>03/11/2025 11:00</t>
+          <t>08/12/2025 11:00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>RIQUELME DA SILVA COSTA</t>
+          <t>GUILHERME ALMEIDA TIBURCIO</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>06/08/2016</t>
+          <t>04/09/2021</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2706,27 +2548,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RJ - Japeri</t>
+          <t>RJ - São João de Meriti</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>17/11/2025 11:00</t>
+          <t>12/12/2025 07:00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BERNARDO DE PAULA MINEIRO SANTOS</t>
+          <t>LUIZ MATHEUS FERREIRA DOS SANTOS</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>30/09/2015</t>
+          <t>31/01/2014</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -2734,7 +2576,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.802,07</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -2749,39 +2591,39 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 434,99</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>RJ - Japeri</t>
+          <t>RJ - São João de Meriti</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>18/11/2025 07:00</t>
+          <t>13/12/2025 07:00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BERNARDO DE PAULA MINEIRO SANTOS</t>
+          <t>GUILHERME ALMEIDA TIBURCIO</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30/09/2015</t>
+          <t>04/09/2021</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -2789,7 +2631,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2804,34 +2646,34 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RJ - Japeri</t>
+          <t>RJ - São João de Meriti</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>08/11/2025 07:00</t>
+          <t>13/12/2025 07:00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>RIQUELME DA SILVA COSTA</t>
+          <t>ARTHUR EMANUEL DE OLIVEIRA LIMA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>06/08/2016</t>
+          <t>25/02/2022</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2871,27 +2713,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RJ - Japeri</t>
+          <t>RJ - São João de Meriti</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>08/11/2025 07:00</t>
+          <t>13/12/2025 07:00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>RIQUELME DA SILVA COSTA</t>
+          <t>IAN SOUZA DO NASCIMENTO</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>06/08/2016</t>
+          <t>13/10/2015</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -2899,7 +2741,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>R$ 6.772,46</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2914,39 +2756,39 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>R$ 385,32</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>R$ 7.157,78</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>RJ - Japeri</t>
+          <t>RJ - São João de Meriti</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>18/11/2025 11:00</t>
+          <t>13/12/2025 07:00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>BERNARDO DE PAULA MINEIRO SANTOS</t>
+          <t>GUILHERME ALMEIDA TIBURCIO</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>30/09/2015</t>
+          <t>04/09/2021</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -2954,7 +2796,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>R$ 5.239,94</t>
+          <t>R$ 4.802,07</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2969,39 +2811,39 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>R$ 610,06</t>
+          <t>R$ 434,99</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>R$ 5.850,00</t>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - São João de Meriti</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>20/10/2025 11:00</t>
+          <t>12/12/2025 07:00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DAVI CORTEIS TEOFILO SOARES</t>
+          <t>LUIZ MATHEUS FERREIRA DOS SANTOS</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>05/08/2013</t>
+          <t>31/01/2014</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -3009,7 +2851,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -3024,34 +2866,34 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>20/10/2025 11:00</t>
+          <t>24/11/2025 11:00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>KAIQUE ANTUNES MARQUES</t>
+          <t>HELENA ROCHA DA SILVA BRAGA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>09/08/2013</t>
+          <t>25/01/2024</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3091,22 +2933,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>20/10/2025 11:00</t>
+          <t>24/11/2025 11:00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>RAFAELLA VENTURA DE SALES</t>
+          <t>NATHALIA DOS SANTOS PEREIRA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>02/08/2024</t>
+          <t>02/05/2019</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -3146,27 +2988,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>20/10/2025 11:00</t>
+          <t>28/11/2025 07:00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>LUAN VITOR MAGALHAES OLIVEIRA</t>
+          <t>NATHALIA DOS SANTOS PEREIRA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>02/05/2019</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -3174,7 +3016,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 5.239,94</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -3189,39 +3031,39 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 610,06</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.850,00</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>20/10/2025 11:00</t>
+          <t>28/11/2025 07:00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>LUISA DE SOUZA FORTES</t>
+          <t>HELENA ROCHA DA SILVA BRAGA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>30/04/2020</t>
+          <t>25/01/2024</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -3229,7 +3071,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 5.239,94</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -3244,34 +3086,34 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 610,06</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.850,00</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Queimados</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>20/10/2025 11:00</t>
+          <t>24/11/2025 11:00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>FABIO ALVES DE MIRANDA</t>
+          <t>VALENTIN DA SILVA RAFAEL</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>09/04/2018</t>
+          <t>23/03/2021</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -3311,22 +3153,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Queimados</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>20/10/2025 11:00</t>
+          <t>24/11/2025 11:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>OTHON ESTEVES LEMOS</t>
+          <t>DAVI SALOMAO ROCHA GERALDO</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>16/04/2022</t>
+          <t>27/10/2019</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -3366,22 +3208,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Queimados</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>20/10/2025 11:00</t>
+          <t>24/11/2025 11:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>JASMYNE DE SOUZA BARRETO</t>
+          <t>DANIEL SALOMAO ROCHA GERALDO</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>09/08/2019</t>
+          <t>27/10/2019</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -3421,27 +3263,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Queimados</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>24/10/2025 07:00</t>
+          <t>24/11/2025 11:00</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>OTHON ESTEVES LEMOS</t>
+          <t>PEDRO MYGUEL VIEIRA DE SOUZA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>16/04/2022</t>
+          <t>18/08/2014</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -3449,7 +3291,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>R$ 5.239,94</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -3464,34 +3306,34 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>R$ 610,06</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>R$ 5.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Queimados</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>24/10/2025 07:00</t>
+          <t>28/11/2025 07:00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DAVI CORTEIS TEOFILO SOARES</t>
+          <t>VALENTIN DA SILVA RAFAEL</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>05/08/2013</t>
+          <t>23/03/2021</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -3531,22 +3373,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Queimados</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>24/10/2025 07:00</t>
+          <t>28/11/2025 07:00</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>KAIQUE ANTUNES MARQUES</t>
+          <t>DAVI SALOMAO ROCHA GERALDO</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>09/08/2013</t>
+          <t>27/10/2019</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -3586,27 +3428,27 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Queimados</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>24/10/2025 07:00</t>
+          <t>28/11/2025 07:00</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>RAFAELLA VENTURA DE SALES</t>
+          <t>DANIEL SALOMAO ROCHA GERALDO</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>02/08/2024</t>
+          <t>27/10/2019</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -3614,7 +3456,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -3629,34 +3471,34 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Queimados</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>24/10/2025 07:00</t>
+          <t>29/11/2025 07:00</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>LUAN VITOR MAGALHAES OLIVEIRA</t>
+          <t>PEDRO MYGUEL VIEIRA DE SOUZA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>18/08/2014</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -3696,27 +3538,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>24/10/2025 07:00</t>
+          <t>01/12/2025 11:00</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>JASMYNE DE SOUZA BARRETO</t>
+          <t>MATIAS MEDEIROS ROSA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>09/08/2019</t>
+          <t>18/11/2017</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -3724,7 +3566,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>R$ 5.239,94</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -3739,39 +3581,39 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>R$ 610,06</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>R$ 5.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>24/10/2025 07:00</t>
+          <t>01/12/2025 11:00</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>LUISA DE SOUZA FORTES</t>
+          <t>LORENA TEIXEIRA ROMEU DIAS</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>30/04/2020</t>
+          <t>12/07/2021</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -3779,7 +3621,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>R$ 5.239,94</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -3794,34 +3636,34 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>R$ 610,06</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>R$ 5.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>24/10/2025 07:00</t>
+          <t>06/12/2025 07:00</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>FABIO ALVES DE MIRANDA</t>
+          <t>LORENA TEIXEIRA ROMEU DIAS</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>09/04/2018</t>
+          <t>12/07/2021</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -3861,27 +3703,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>24/10/2025 07:00</t>
+          <t>06/12/2025 07:00</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>OTHON ESTEVES LEMOS</t>
+          <t>MATIAS MEDEIROS ROSA</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>16/04/2022</t>
+          <t>18/11/2017</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -3889,7 +3731,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>R$ 6.772,46</t>
+          <t>R$ 5.239,94</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -3904,39 +3746,39 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>R$ 385,32</t>
+          <t>R$ 610,06</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>R$ 7.157,78</t>
+          <t>R$ 5.850,00</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>24/10/2025 07:00</t>
+          <t>08/12/2025 11:00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>FABIO ALVES DE MIRANDA</t>
+          <t>LUIS GUILHERME FREITAS MELLO</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>09/04/2018</t>
+          <t>15/03/2021</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -3944,7 +3786,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -3959,39 +3801,39 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>24/10/2025 07:00</t>
+          <t>08/12/2025 11:00</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>OTHON ESTEVES LEMOS</t>
+          <t>PABLO MIGUEL ALVES MOREIRA</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>16/04/2022</t>
+          <t>29/08/2023</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -3999,7 +3841,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -4014,39 +3856,39 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>RJ - Seropédica</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>20/10/2025 11:00</t>
+          <t>13/12/2025 07:00</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>samuel da silva pessoa</t>
+          <t>PABLO MIGUEL ALVES MOREIRA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>27/02/2014</t>
+          <t>29/08/2023</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -4054,7 +3896,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 5.239,94</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -4069,39 +3911,39 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 610,06</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.850,00</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>RJ - Seropédica</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>25/10/2025 07:00</t>
+          <t>13/12/2025 07:00</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>samuel da silva pessoa</t>
+          <t>LUIS GUILHERME FREITAS MELLO</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>27/02/2014</t>
+          <t>15/03/2021</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -4109,7 +3951,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 5.239,94</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -4124,39 +3966,39 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 610,06</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 5.850,00</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>RJ - Seropédica</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>17/11/2025 11:00</t>
+          <t>06/12/2025 07:00</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>GABRYELLA MARTINS DA SILVA</t>
+          <t>MATIAS MEDEIROS ROSA</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>22/10/2018</t>
+          <t>18/11/2017</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -4164,7 +4006,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.802,07</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -4179,39 +4021,39 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 434,99</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>RJ - Seropédica</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>17/11/2025 11:00</t>
+          <t>06/12/2025 07:00</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>RIQUELME TAVARES ALMEIDA</t>
+          <t>MATIAS MEDEIROS ROSA</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>23/05/2020</t>
+          <t>18/11/2017</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -4219,7 +4061,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -4234,39 +4076,39 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>RJ - Seropédica</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>17/11/2025 11:00</t>
+          <t>13/12/2025 07:00</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ENZO GABRIEL NASCIMENTO DE OLIVEIRA</t>
+          <t>LUIS GUILHERME FREITAS MELLO</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>11/02/2015</t>
+          <t>15/03/2021</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>CORRECAO DE HIPOSPADIA (1º TEMPO) - PEDIATRICO</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -4274,7 +4116,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.235,90</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -4289,39 +4131,39 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 372,96</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 6.608,86</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>RJ - Seropédica</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>18/11/2025 07:00</t>
+          <t>13/12/2025 07:00</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>GABRYELLA MARTINS DA SILVA</t>
+          <t>PABLO MIGUEL ALVES MOREIRA</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>22/10/2018</t>
+          <t>29/08/2023</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -4329,7 +4171,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 6.772,46</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -4344,39 +4186,39 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 385,32</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 7.157,78</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>RJ - Seropédica</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>18/11/2025 07:00</t>
+          <t>01/12/2025 11:00</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>RIQUELME TAVARES ALMEIDA</t>
+          <t>MALU GURGEL MARTINS</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>23/05/2020</t>
+          <t>25/02/2019</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -4384,7 +4226,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -4399,39 +4241,39 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>RJ - Seropédica</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>18/11/2025 07:00</t>
+          <t>01/12/2025 11:00</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ENZO GABRIEL NASCIMENTO DE OLIVEIRA</t>
+          <t>NOAH GABRIEL DOS SANTOS BARBOSA</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>11/02/2015</t>
+          <t>12/05/2022</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -4439,7 +4281,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -4454,39 +4296,39 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>RJ - Seropédica</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>18/11/2025 11:00</t>
+          <t>01/12/2025 11:00</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>GABRYELLA MARTINS DA SILVA</t>
+          <t>MIRELLA SOPHIA LOPES LIRA</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>22/10/2018</t>
+          <t>21/03/2018</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -4494,7 +4336,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>R$ 5.239,94</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -4509,39 +4351,39 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>R$ 610,06</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>R$ 5.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>RJ - Seropédica</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>18/11/2025 11:00</t>
+          <t>01/12/2025 11:00</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>RIQUELME TAVARES ALMEIDA</t>
+          <t>MICAELA CARDOSO DA SILVA NEVES</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>23/05/2020</t>
+          <t>03/10/2013</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -4549,7 +4391,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>R$ 5.239,94</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -4564,34 +4406,34 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>R$ 610,06</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>R$ 5.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>20/10/2025 11:00</t>
+          <t>01/12/2025 11:00</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>JOAO RICARDO FERNANDES JOAQUIM DE ALMEIDA</t>
+          <t>CRISTIANI ROCHA DOS SANTOS GONCALVES NASCIMENTO</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>02/05/2017</t>
+          <t>21/03/2022</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -4631,22 +4473,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>20/10/2025 11:00</t>
+          <t>01/12/2025 11:00</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>MARLON MIGUEL MOREIRA SANTOS DA SILVA</t>
+          <t>JOHN RICHARD SILVA MENDES</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>23/12/2022</t>
+          <t>07/07/2017</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -4686,22 +4528,22 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>20/10/2025 11:00</t>
+          <t>01/12/2025 11:00</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>HEITOR LUCAS ALMEIDA</t>
+          <t>PEDRO HENRIQUE MENDES MATHIAS</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>20/05/2021</t>
+          <t>15/07/2018</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -4741,27 +4583,27 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>25/10/2025 07:00</t>
+          <t>01/12/2025 11:00</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>JOAO RICARDO FERNANDES JOAQUIM DE ALMEIDA</t>
+          <t>HELOISA LOPES DA COSTA</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>02/05/2017</t>
+          <t>03/01/2022</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -4769,7 +4611,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -4784,39 +4626,39 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>25/10/2025 07:00</t>
+          <t>01/12/2025 11:00</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>MARLON MIGUEL MOREIRA SANTOS DA SILVA</t>
+          <t>VALENTINA MOREIRA DA SILVA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>23/12/2022</t>
+          <t>19/12/2018</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -4824,7 +4666,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -4839,39 +4681,39 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>25/10/2025 07:00</t>
+          <t>01/12/2025 11:00</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>HEITOR LUCAS ALMEIDA</t>
+          <t>ARTHUR SANTOS MOLINA</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>20/05/2021</t>
+          <t>29/10/2017</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -4879,7 +4721,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -4894,34 +4736,34 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>08/11/2025 07:00</t>
+          <t>05/12/2025 07:00</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>LENDROLEO VINICIUS DOS SANTOS SILVA</t>
+          <t>MIRELLA SOPHIA LOPES LIRA</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>12/03/2020</t>
+          <t>21/03/2018</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -4961,22 +4803,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>08/11/2025 07:00</t>
+          <t>05/12/2025 07:00</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>THIAGO BATISTA DOS SANTOS</t>
+          <t>JOHN RICHARD SILVA MENDES</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>03/04/2015</t>
+          <t>07/07/2017</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -5016,27 +4858,27 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>03/11/2025 11:00</t>
+          <t>05/12/2025 07:00</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>THIAGO BATISTA DOS SANTOS</t>
+          <t>MALU GURGEL MARTINS</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>03/04/2015</t>
+          <t>25/02/2019</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -5044,7 +4886,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.802,07</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -5059,39 +4901,39 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 434,99</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>03/11/2025 11:00</t>
+          <t>06/12/2025 07:00</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>LENDROLEO VINICIUS DOS SANTOS SILVA</t>
+          <t>CRISTIANI ROCHA DOS SANTOS GONCALVES NASCIMENTO</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>12/03/2020</t>
+          <t>21/03/2022</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -5099,7 +4941,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 5.239,94</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -5114,39 +4956,39 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 610,06</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.850,00</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>27/10/2025 11:00</t>
+          <t>06/12/2025 07:00</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ALLANA SAMARA BARRETO ALVES DA SILVA</t>
+          <t>MICAELA CARDOSO DA SILVA NEVES</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>26/07/2021</t>
+          <t>03/10/2013</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -5154,7 +4996,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.802,07</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -5169,39 +5011,39 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 434,99</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>27/10/2025 11:00</t>
+          <t>06/12/2025 07:00</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ISADORA MACHADO MACEDO</t>
+          <t>VALENTINA MOREIRA DA SILVA</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>05/02/2021</t>
+          <t>19/12/2018</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -5209,7 +5051,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 5.239,94</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -5224,39 +5066,39 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 610,06</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.850,00</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>27/10/2025 11:00</t>
+          <t>06/12/2025 07:00</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>JOHN LUCCA DIAS GUILHERME</t>
+          <t>ARTHUR SANTOS MOLINA</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>26/03/2019</t>
+          <t>29/10/2017</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -5264,7 +5106,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.802,07</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -5279,39 +5121,39 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 434,99</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>27/10/2025 11:00</t>
+          <t>06/12/2025 07:00</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ANNA MIRELLA DA SILVA GRILLO</t>
+          <t>HELOISA LOPES DA COSTA</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>16/11/2015</t>
+          <t>03/01/2022</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -5319,7 +5161,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 5.239,94</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -5334,34 +5176,34 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 610,06</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.850,00</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>28/10/2025 07:00</t>
+          <t>06/12/2025 07:00</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>ALLANA SAMARA BARRETO ALVES DA SILVA</t>
+          <t>NOAH GABRIEL DOS SANTOS BARBOSA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>26/07/2021</t>
+          <t>12/05/2022</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -5401,27 +5243,27 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>28/10/2025 07:00</t>
+          <t>08/12/2025 11:00</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>ISADORA MACHADO MACEDO</t>
+          <t>LORENZO BATISTA GOMES</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>05/02/2021</t>
+          <t>01/05/2019</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -5429,7 +5271,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -5444,39 +5286,39 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>28/10/2025 07:00</t>
+          <t>08/12/2025 11:00</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>JOHN LUCCA DIAS GUILHERME</t>
+          <t>LORENZO DOMINGOS FERREIRA DE OLIVEIRA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>26/03/2019</t>
+          <t>16/09/2018</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -5484,7 +5326,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -5499,39 +5341,39 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>28/10/2025 07:00</t>
+          <t>08/12/2025 11:00</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ANNA MIRELLA DA SILVA GRILLO</t>
+          <t>GABRIEL SILVA DE SOUZA</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>16/11/2015</t>
+          <t>26/06/2017</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -5539,7 +5381,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -5554,39 +5396,39 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>25/10/2025 07:00</t>
+          <t>08/12/2025 11:00</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>JOAO RICARDO FERNANDES JOAQUIM DE ALMEIDA</t>
+          <t>MANUELLA MENDES MARCAL</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>02/05/2017</t>
+          <t>20/03/2019</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -5594,7 +5436,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -5609,39 +5451,39 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>25/10/2025 07:00</t>
+          <t>12/12/2025 07:00</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>HEITOR LUCAS ALMEIDA</t>
+          <t>GABRIEL SILVA DE SOUZA</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>20/05/2021</t>
+          <t>26/06/2017</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -5649,7 +5491,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>R$ 5.239,94</t>
+          <t>R$ 4.802,07</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -5664,39 +5506,39 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>R$ 610,06</t>
+          <t>R$ 434,99</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>R$ 5.850,00</t>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>25/10/2025 07:00</t>
+          <t>12/12/2025 07:00</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>HEITOR LUCAS ALMEIDA</t>
+          <t>MANUELLA MENDES MARCAL</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>20/05/2021</t>
+          <t>20/03/2019</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -5704,7 +5546,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>R$ 6.772,46</t>
+          <t>R$ 4.802,07</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -5719,39 +5561,39 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>R$ 385,32</t>
+          <t>R$ 434,99</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>R$ 7.157,78</t>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>25/10/2025 07:00</t>
+          <t>12/12/2025 07:00</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>HEITOR LUCAS ALMEIDA</t>
+          <t>LORENZO DOMINGOS FERREIRA DE OLIVEIRA</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>20/05/2021</t>
+          <t>16/09/2018</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -5759,7 +5601,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 4.802,07</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -5774,34 +5616,34 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 434,99</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>25/10/2025 07:00</t>
+          <t>12/12/2025 07:00</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>MARLON MIGUEL MOREIRA SANTOS DA SILVA</t>
+          <t>LORENZO BATISTA GOMES</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>23/12/2022</t>
+          <t>01/05/2019</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -5841,27 +5683,27 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>25/10/2025 07:00</t>
+          <t>06/12/2025 07:00</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>MARLON MIGUEL MOREIRA SANTOS DA SILVA</t>
+          <t>VALENTINA MOREIRA DA SILVA</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>23/12/2022</t>
+          <t>19/12/2018</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -5869,7 +5711,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 4.802,07</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -5884,39 +5726,39 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 434,99</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>28/10/2025 15:00</t>
+          <t>06/12/2025 07:00</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ALLANA SAMARA BARRETO ALVES DA SILVA</t>
+          <t>NOAH GABRIEL DOS SANTOS BARBOSA</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>26/07/2021</t>
+          <t>12/05/2022</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -5924,7 +5766,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -5939,34 +5781,34 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>RJ - Belford Roxo</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>10/11/2025 15:00</t>
+          <t>12/12/2025 07:00</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>LENDROLEO VINICIUS DOS SANTOS SILVA</t>
+          <t>LORENZO BATISTA GOMES</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>12/03/2020</t>
+          <t>01/05/2019</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -6006,27 +5848,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>20/10/2025 11:00</t>
+          <t>12/12/2025 07:00</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>PEDRO LUCAS RIBEIRO JULIAO DE SOUZA</t>
+          <t>GABRIEL SILVA DE SOUZA</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>28/07/2020</t>
+          <t>26/06/2017</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -6034,7 +5876,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -6049,39 +5891,39 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Belford Roxo</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>25/10/2025 07:00</t>
+          <t>01/12/2025 11:00</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>PEDRO LUCAS RIBEIRO JULIAO DE SOUZA</t>
+          <t>EMANUEL SILVA VARELA</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>28/07/2020</t>
+          <t>28/10/2019</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -6089,7 +5931,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -6104,39 +5946,39 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Belford Roxo</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>07/11/2025 07:00</t>
+          <t>01/12/2025 11:00</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>GAEL ARAUJO DOS SANTOS</t>
+          <t>DIEGO LUCAS DA SILVA</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>17/10/2019</t>
+          <t>01/12/2018</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -6144,7 +5986,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -6159,39 +6001,39 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Belford Roxo</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>07/11/2025 07:00</t>
+          <t>01/12/2025 11:00</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>PIETRO DANIEL SANTOS MACHADO</t>
+          <t>DAVI CRISTIAN LIMA DA CRUZ</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>28/05/2017</t>
+          <t>28/07/2012</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -6199,7 +6041,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -6214,39 +6056,39 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Belford Roxo</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>07/11/2025 07:00</t>
+          <t>01/12/2025 11:00</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>GUILHERME ROMAO DA SILVA</t>
+          <t>CHRISTOPHER COSTA DAMASCENO</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>21/08/2017</t>
+          <t>07/07/2016</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -6254,7 +6096,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -6269,39 +6111,39 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Belford Roxo</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>07/11/2025 07:00</t>
+          <t>05/12/2025 07:00</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>JOAO ARTHUR FERNANDES DE VASCONCELOS</t>
+          <t>EMANUEL SILVA VARELA</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>31/08/2019</t>
+          <t>28/10/2019</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -6309,7 +6151,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 4.802,07</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -6324,39 +6166,39 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 434,99</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Belford Roxo</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>07/11/2025 07:00</t>
+          <t>05/12/2025 07:00</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>ITALO SANTOS DE SAO JUSTO</t>
+          <t>DIEGO LUCAS DA SILVA</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>01/12/2018</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -6364,7 +6206,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 4.802,07</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -6379,34 +6221,34 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 434,99</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Belford Roxo</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>07/11/2025 07:00</t>
+          <t>05/12/2025 07:00</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>PEDRO PATRICK PONTES DE LIMA</t>
+          <t>DAVI CRISTIAN LIMA DA CRUZ</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>09/05/2020</t>
+          <t>28/07/2012</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -6446,27 +6288,27 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Belford Roxo</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>03/11/2025 11:00</t>
+          <t>05/12/2025 07:00</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>ITALO SANTOS DE SAO JUSTO</t>
+          <t>CHRISTOPHER COSTA DAMASCENO</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>07/07/2016</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -6474,7 +6316,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -6489,39 +6331,39 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Belford Roxo</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>03/11/2025 11:00</t>
+          <t>05/12/2025 07:00</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>GUILHERME ROMAO DA SILVA</t>
+          <t>DIEGO LUCAS DA SILVA</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>21/08/2017</t>
+          <t>01/12/2018</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -6529,7 +6371,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -6544,39 +6386,39 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Belford Roxo</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>03/11/2025 11:00</t>
+          <t>05/12/2025 07:00</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>GAEL ARAUJO DOS SANTOS</t>
+          <t>CHRISTOPHER COSTA DAMASCENO</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>17/10/2019</t>
+          <t>07/07/2016</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>CORRECAO DE HIPOSPADIA (1º TEMPO) - PEDIATRICO</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -6584,7 +6426,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.235,90</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -6599,39 +6441,39 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 372,96</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 6.608,86</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Belford Roxo</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>03/11/2025 11:00</t>
+          <t>05/12/2025 07:00</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>PIETRO DANIEL SANTOS MACHADO</t>
+          <t>EMANUEL SILVA VARELA</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>28/05/2017</t>
+          <t>28/10/2019</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -6639,7 +6481,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 5.239,94</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -6654,34 +6496,34 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 610,06</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.850,00</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>03/11/2025 11:00</t>
+          <t>08/12/2025 11:00</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>PEDRO PATRICK PONTES DE LIMA</t>
+          <t>GUILHERME FERREIRA DA COSTA</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>09/05/2020</t>
+          <t>11/04/2020</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -6721,27 +6563,27 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>03/11/2025 11:00</t>
+          <t>12/12/2025 07:00</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>JOAO ARTHUR FERNANDES DE VASCONCELOS</t>
+          <t>GUILHERME FERREIRA DA COSTA</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>31/08/2019</t>
+          <t>11/04/2020</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -6749,7 +6591,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -6764,39 +6606,39 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>27/10/2025 11:00</t>
+          <t>12/12/2025 07:00</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>NICOLLAS SOUZA DE JESUS</t>
+          <t>GUILHERME FERREIRA DA COSTA</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>01/06/2015</t>
+          <t>11/04/2020</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -6804,7 +6646,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.802,07</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -6819,39 +6661,39 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 434,99</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>27/10/2025 11:00</t>
+          <t>12/12/2025 11:00</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>BRAYAN BAPTISTA EDMUNDO</t>
+          <t>GUILHERME FERREIRA DA COSTA</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>26/06/2019</t>
+          <t>11/04/2020</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -6859,7 +6701,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 5.239,94</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -6874,1002 +6716,12 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 610,06</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>RJ - Mesquita</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>28/10/2025 07:00</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>NICOLLAS SOUZA DE JESUS</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>01/06/2015</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F85" t="n">
-        <v>1</v>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>R$ 4.630,88</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>R$ 219,12</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>R$ 4.850,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>RJ - Mesquita</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>28/10/2025 07:00</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>BRAYAN BAPTISTA EDMUNDO</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>26/06/2019</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F86" t="n">
-        <v>1</v>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>R$ 4.630,88</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>R$ 219,12</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>R$ 4.850,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>RJ - Mesquita</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>07/11/2025 07:00</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>GUILHERME ROMAO DA SILVA</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>21/08/2017</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F87" t="n">
-        <v>1</v>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>R$ 5.239,94</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>R$ 610,06</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
           <t>R$ 5.850,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>RJ - Mesquita</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>07/11/2025 07:00</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>GUILHERME ROMAO DA SILVA</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>21/08/2017</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F88" t="n">
-        <v>1</v>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>R$ 6.772,46</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>R$ 385,32</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>R$ 7.157,78</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>RJ - Mesquita</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>07/11/2025 07:00</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>GAEL ARAUJO DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>17/10/2019</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F89" t="n">
-        <v>1</v>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>R$ 6.772,46</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>R$ 385,32</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>R$ 7.157,78</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>RJ - Mesquita</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>07/11/2025 07:00</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>PIETRO DANIEL SANTOS MACHADO</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>28/05/2017</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F90" t="n">
-        <v>1</v>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>R$ 6.772,46</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>R$ 385,32</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>R$ 7.157,78</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>RJ - Itaguaí</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>08/11/2025 07:00</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>KAIQUE DE SA GONCALVES</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>17/05/2017</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F91" t="n">
-        <v>1</v>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>R$ 5.239,94</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>R$ 610,06</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>R$ 5.850,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>RJ - Itaguaí</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>03/11/2025 11:00</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>KAIQUE DE SA GONCALVES</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>17/05/2017</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="F92" t="n">
-        <v>1</v>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>RJ - Itaguaí</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>08/11/2025 07:00</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>KAIQUE DE SA GONCALVES</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>17/05/2017</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F93" t="n">
-        <v>1</v>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>R$ 4.630,88</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>R$ 219,12</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>R$ 4.850,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>RJ - São João de Meriti</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>27/10/2025 11:00</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>HENRY DE SOUZA MARIA DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>27/05/2017</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="F94" t="n">
-        <v>1</v>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>RJ - São João de Meriti</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>28/10/2025 07:00</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>HENRY DE SOUZA MARIA DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>27/05/2017</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F95" t="n">
-        <v>1</v>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>R$ 4.630,88</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>R$ 219,12</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>R$ 4.850,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>RJ - São João de Meriti</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>18/11/2025 07:00</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>DAVI HENRIQUE DE ASSIS DO ROZARIO</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>13/05/2020</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F96" t="n">
-        <v>1</v>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>R$ 4.630,88</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>R$ 219,12</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>R$ 4.850,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>RJ - São João de Meriti</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>18/11/2025 07:00</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>HUGO LUIS FRANCELINO MANILHA</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>11/04/2016</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F97" t="n">
-        <v>1</v>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>R$ 4.630,88</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>R$ 219,12</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>R$ 4.850,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>RJ - São João de Meriti</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>18/11/2025 07:00</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>LUIDY GABRIEL DE SOUZA EMIDIO</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>12/06/2021</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F98" t="n">
-        <v>1</v>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>R$ 4.630,88</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>R$ 219,12</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>R$ 4.850,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>RJ - São João de Meriti</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>17/11/2025 11:00</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>DAVI HENRIQUE DE ASSIS DO ROZARIO</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>13/05/2020</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="F99" t="n">
-        <v>1</v>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>RJ - São João de Meriti</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>17/11/2025 11:00</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>HUGO LUIS FRANCELINO MANILHA</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>11/04/2016</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="F100" t="n">
-        <v>1</v>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>RJ - São João de Meriti</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>17/11/2025 11:00</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>LUIDY GABRIEL DE SOUZA EMIDIO</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>12/06/2021</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="F101" t="n">
-        <v>1</v>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>RJ - São João de Meriti</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>18/11/2025 11:00</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>HUGO LUIS FRANCELINO MANILHA</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>11/04/2016</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>CORRECAO DE HIPOSPADIA (1º TEMPO) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F102" t="n">
-        <v>1</v>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>R$ 6.235,90</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>R$ 372,96</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>R$ 6.608,86</t>
         </is>
       </c>
     </row>
